--- a/datafiles-2017/xlsfiles/CNP Dashboard Varlist_2017.xlsx
+++ b/datafiles-2017/xlsfiles/CNP Dashboard Varlist_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="2250" windowWidth="18195" windowHeight="5595" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="870" yWindow="2250" windowWidth="18195" windowHeight="5595" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ACS" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11897" uniqueCount="4060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11897" uniqueCount="4056">
   <si>
     <t>rent_den</t>
   </si>
@@ -10253,12 +10253,6 @@
     <t>mt_rcburden50p</t>
   </si>
   <si>
-    <t>m_t_cburden30p</t>
-  </si>
-  <si>
-    <t>m_t_cburden50p</t>
-  </si>
-  <si>
     <t>m_w_cburden30p</t>
   </si>
   <si>
@@ -10685,12 +10679,6 @@
     <t>Renter-occupied housing units-Housing costs &gt; 50% of household income, MOE (Hispanic)</t>
   </si>
   <si>
-    <t>% Occupied housing units-Housing costs &gt; 30% of household income, MOE</t>
-  </si>
-  <si>
-    <t>% Occupied housing units-Housing costs &gt; 50% of household income, MOE</t>
-  </si>
-  <si>
     <t>% Occupied housing units-Housing costs &gt; 30% of household income, MOE (Non-Hispanic White)</t>
   </si>
   <si>
@@ -11384,9 +11372,6 @@
     <t>Median household income (in inflation adjusted 2015 dollar)</t>
   </si>
   <si>
-    <t>To be determined</t>
-  </si>
-  <si>
     <t>Voter participation rate (general election)</t>
   </si>
   <si>
@@ -12243,6 +12228,9 @@
   </si>
   <si>
     <t>(Number of Hispanic 10th graders passing the 10th grade math test / Number of Hispanic 10th graders who took the test) X 100</t>
+  </si>
+  <si>
+    <t>Community</t>
   </si>
 </sst>
 </file>
@@ -12761,7 +12749,7 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -12842,6 +12830,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -13234,7 +13225,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1282"/>
   <sheetViews>
-    <sheetView topLeftCell="A974" workbookViewId="0"/>
+    <sheetView topLeftCell="D315" workbookViewId="0">
+      <selection activeCell="F325" sqref="F325"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13518,7 +13511,7 @@
         <v>2642</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>3771</v>
+        <v>3767</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>1306</v>
@@ -14948,7 +14941,7 @@
         <v>2642</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>3772</v>
+        <v>3768</v>
       </c>
       <c r="F73" s="36" t="s">
         <v>1306</v>
@@ -46399,7 +46392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -47730,23 +47723,23 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="60" t="s">
         <v>3175</v>
       </c>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
     </row>
     <row r="54" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="61" t="s">
         <v>3179</v>
       </c>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -47760,11 +47753,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -47772,7 +47763,7 @@
     <col min="2" max="2" width="6.42578125" customWidth="1"/>
     <col min="3" max="3" width="113.28515625" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" style="56" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
   </cols>
@@ -47811,13 +47802,13 @@
         <v>1014</v>
       </c>
       <c r="C2" t="s">
-        <v>3432</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3773</v>
+        <v>3430</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>1306</v>
       </c>
       <c r="G2" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -47831,13 +47822,13 @@
         <v>1014</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H3" s="40">
         <v>1</v>
@@ -47851,13 +47842,13 @@
         <v>1014</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H4" s="40">
         <v>1</v>
@@ -47871,13 +47862,13 @@
         <v>1014</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H5" s="40">
         <v>1</v>
@@ -47891,13 +47882,13 @@
         <v>1014</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H6" s="40">
         <v>1</v>
@@ -47911,13 +47902,13 @@
         <v>1014</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H7" s="40">
         <v>1</v>
@@ -47931,13 +47922,13 @@
         <v>1014</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H8" s="40">
         <v>1</v>
@@ -47951,13 +47942,13 @@
         <v>1014</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H9" s="40">
         <v>1</v>
@@ -47971,13 +47962,13 @@
         <v>1014</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H10" s="40">
         <v>1</v>
@@ -47991,13 +47982,13 @@
         <v>1014</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H11" s="40">
         <v>1</v>
@@ -48011,13 +48002,13 @@
         <v>1014</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H12" s="40">
         <v>1</v>
@@ -48031,13 +48022,13 @@
         <v>1014</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H13" s="40">
         <v>1</v>
@@ -48051,13 +48042,13 @@
         <v>1014</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H14" s="40">
         <v>1</v>
@@ -48071,13 +48062,13 @@
         <v>1014</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H15" s="40">
         <v>1</v>
@@ -48091,13 +48082,13 @@
         <v>1014</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H16" s="40">
         <v>1</v>
@@ -48111,13 +48102,13 @@
         <v>1014</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H17" s="40">
         <v>1</v>
@@ -48131,13 +48122,13 @@
         <v>1014</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H18" s="40">
         <v>1</v>
@@ -48151,13 +48142,13 @@
         <v>1014</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H19" s="40">
         <v>1</v>
@@ -48171,13 +48162,13 @@
         <v>1014</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H20" s="40">
         <v>1</v>
@@ -48191,13 +48182,13 @@
         <v>1014</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H21" s="40">
         <v>1</v>
@@ -48211,13 +48202,13 @@
         <v>1014</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H22" s="40">
         <v>1</v>
@@ -48231,13 +48222,13 @@
         <v>1014</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H23" s="40">
         <v>1</v>
@@ -48251,13 +48242,13 @@
         <v>1014</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H24" s="40">
         <v>1</v>
@@ -48271,13 +48262,13 @@
         <v>1014</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H25" s="40">
         <v>1</v>
@@ -48285,19 +48276,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3312</v>
+        <v>3322</v>
       </c>
       <c r="B26" s="40">
         <v>1014</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H26" s="40">
         <v>1</v>
@@ -48305,19 +48296,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>3313</v>
+        <v>3323</v>
       </c>
       <c r="B27" s="40">
         <v>1014</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H27" s="40">
         <v>1</v>
@@ -48325,19 +48316,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>3314</v>
+        <v>3312</v>
       </c>
       <c r="B28" s="40">
         <v>1014</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H28" s="40">
         <v>1</v>
@@ -48345,19 +48336,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>3315</v>
+        <v>3313</v>
       </c>
       <c r="B29" s="40">
         <v>1014</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H29" s="40">
         <v>1</v>
@@ -48365,19 +48356,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3316</v>
+        <v>3314</v>
       </c>
       <c r="B30" s="40">
         <v>1014</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G30" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H30" s="40">
         <v>1</v>
@@ -48385,19 +48376,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3317</v>
+        <v>3315</v>
       </c>
       <c r="B31" s="40">
         <v>1014</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G31" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H31" s="40">
         <v>1</v>
@@ -48405,19 +48396,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>3318</v>
+        <v>3316</v>
       </c>
       <c r="B32" s="40">
         <v>1014</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G32" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H32" s="40">
         <v>1</v>
@@ -48425,19 +48416,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3319</v>
+        <v>3317</v>
       </c>
       <c r="B33" s="40">
         <v>1014</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H33" s="40">
         <v>1</v>
@@ -48445,19 +48436,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="B34" s="40">
         <v>1014</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G34" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H34" s="40">
         <v>1</v>
@@ -48465,19 +48456,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>3321</v>
+        <v>3319</v>
       </c>
       <c r="B35" s="40">
         <v>1014</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H35" s="40">
         <v>1</v>
@@ -48485,19 +48476,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="B36" s="40">
         <v>1014</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H36" s="40">
         <v>1</v>
@@ -48505,19 +48496,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3323</v>
+        <v>3321</v>
       </c>
       <c r="B37" s="40">
         <v>1014</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H37" s="40">
         <v>1</v>
@@ -48531,16 +48522,16 @@
         <v>1014</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="D38" s="56" t="s">
-        <v>3720</v>
+        <v>3716</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H38" s="40">
         <v>1</v>
@@ -48554,16 +48545,16 @@
         <v>1014</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>3469</v>
+        <v>3467</v>
       </c>
       <c r="D39" s="56" t="s">
-        <v>3721</v>
+        <v>3717</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G39" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H39" s="40">
         <v>1</v>
@@ -48577,16 +48568,16 @@
         <v>1014</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
       <c r="D40" s="56" t="s">
-        <v>3725</v>
+        <v>3721</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H40" s="40">
         <v>1</v>
@@ -48600,16 +48591,16 @@
         <v>1014</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
       <c r="D41" s="56" t="s">
-        <v>3726</v>
+        <v>3722</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H41" s="40">
         <v>1</v>
@@ -48623,16 +48614,16 @@
         <v>1014</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3472</v>
+        <v>3470</v>
       </c>
       <c r="D42" s="56" t="s">
-        <v>3727</v>
+        <v>3723</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H42" s="40">
         <v>1</v>
@@ -48646,16 +48637,16 @@
         <v>1014</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>3473</v>
+        <v>3471</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>3728</v>
+        <v>3724</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H43" s="40">
         <v>1</v>
@@ -48669,16 +48660,16 @@
         <v>1014</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
       <c r="D44" s="56" t="s">
-        <v>3729</v>
+        <v>3725</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G44" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H44" s="40">
         <v>1</v>
@@ -48692,16 +48683,16 @@
         <v>1014</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
       <c r="D45" s="56" t="s">
-        <v>3730</v>
+        <v>3726</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H45" s="40">
         <v>1</v>
@@ -48715,16 +48706,16 @@
         <v>1014</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="D46" s="56" t="s">
-        <v>3731</v>
+        <v>3727</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G46" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H46" s="40">
         <v>1</v>
@@ -48738,16 +48729,16 @@
         <v>1014</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>3477</v>
+        <v>3475</v>
       </c>
       <c r="D47" s="56" t="s">
-        <v>3732</v>
+        <v>3728</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H47" s="40">
         <v>1</v>
@@ -48761,16 +48752,16 @@
         <v>1014</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>3478</v>
+        <v>3476</v>
       </c>
       <c r="D48" s="56" t="s">
-        <v>3733</v>
+        <v>3729</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H48" s="40">
         <v>1</v>
@@ -48784,16 +48775,16 @@
         <v>1014</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
       <c r="D49" s="56" t="s">
-        <v>3734</v>
+        <v>3730</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G49" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H49" s="40">
         <v>1</v>
@@ -48807,16 +48798,16 @@
         <v>1014</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>3480</v>
+        <v>3478</v>
       </c>
       <c r="D50" s="56" t="s">
-        <v>3722</v>
+        <v>3718</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G50" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H50" s="40">
         <v>1</v>
@@ -48830,16 +48821,16 @@
         <v>1014</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="D51" s="56" t="s">
-        <v>3723</v>
+        <v>3719</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G51" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H51" s="40">
         <v>1</v>
@@ -48853,16 +48844,16 @@
         <v>1014</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
       <c r="D52" s="56" t="s">
-        <v>3724</v>
+        <v>3720</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H52" s="40">
         <v>1</v>
@@ -48876,16 +48867,16 @@
         <v>1014</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
       <c r="D53" s="56" t="s">
-        <v>3735</v>
+        <v>3731</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G53" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H53" s="40">
         <v>1</v>
@@ -48899,16 +48890,16 @@
         <v>1014</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>3484</v>
+        <v>3482</v>
       </c>
       <c r="D54" s="56" t="s">
-        <v>3736</v>
+        <v>3732</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H54" s="40">
         <v>1</v>
@@ -48922,16 +48913,16 @@
         <v>1014</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
       <c r="D55" s="56" t="s">
-        <v>3737</v>
+        <v>3733</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H55" s="40">
         <v>1</v>
@@ -48945,16 +48936,16 @@
         <v>1014</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>3486</v>
+        <v>3484</v>
       </c>
       <c r="D56" s="56" t="s">
-        <v>3738</v>
+        <v>3734</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H56" s="40">
         <v>1</v>
@@ -48968,16 +48959,16 @@
         <v>1014</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="D57" s="56" t="s">
-        <v>3739</v>
+        <v>3735</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G57" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H57" s="40">
         <v>1</v>
@@ -48991,16 +48982,16 @@
         <v>1014</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
       <c r="D58" s="56" t="s">
-        <v>3740</v>
+        <v>3736</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G58" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H58" s="40">
         <v>1</v>
@@ -49014,16 +49005,16 @@
         <v>1014</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="D59" s="56" t="s">
-        <v>3741</v>
+        <v>3737</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G59" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H59" s="40">
         <v>1</v>
@@ -49037,16 +49028,16 @@
         <v>1014</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="D60" s="56" t="s">
-        <v>3742</v>
+        <v>3738</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G60" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H60" s="40">
         <v>1</v>
@@ -49060,108 +49051,110 @@
         <v>1014</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="D61" s="56" t="s">
-        <v>3743</v>
+        <v>3739</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G61" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H61" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>3348</v>
+    <row r="62" spans="1:8" s="40" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="40" t="s">
+        <v>3358</v>
       </c>
       <c r="B62" s="40">
         <v>1014</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>3492</v>
-      </c>
-      <c r="D62" s="56" t="s">
-        <v>3744</v>
+        <v>3490</v>
+      </c>
+      <c r="D62" s="59" t="s">
+        <v>3740</v>
       </c>
       <c r="E62" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G62" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H62" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>3349</v>
+    <row r="63" spans="1:8" s="40" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="40" t="s">
+        <v>3359</v>
       </c>
       <c r="B63" s="40">
         <v>1014</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>3493</v>
-      </c>
-      <c r="D63" s="56" t="s">
-        <v>3745</v>
+        <v>3491</v>
+      </c>
+      <c r="D63" s="59" t="s">
+        <v>3741</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G63" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H63" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>3350</v>
+        <v>3348</v>
       </c>
       <c r="B64" s="40">
         <v>1014</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>3494</v>
-      </c>
-      <c r="D64" s="56" t="s">
-        <v>3746</v>
+        <v>3492</v>
+      </c>
+      <c r="D64" s="59" t="s">
+        <v>3742</v>
       </c>
       <c r="E64" s="40" t="s">
-        <v>3773</v>
-      </c>
+        <v>1306</v>
+      </c>
+      <c r="F64" s="40"/>
       <c r="G64" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H64" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>3351</v>
+        <v>3349</v>
       </c>
       <c r="B65" s="40">
         <v>1014</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>3495</v>
-      </c>
-      <c r="D65" s="56" t="s">
-        <v>3747</v>
+        <v>3493</v>
+      </c>
+      <c r="D65" s="59" t="s">
+        <v>3743</v>
       </c>
       <c r="E65" s="40" t="s">
-        <v>3773</v>
-      </c>
+        <v>1306</v>
+      </c>
+      <c r="F65" s="40"/>
       <c r="G65" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H65" s="40">
         <v>1</v>
@@ -49169,22 +49162,23 @@
     </row>
     <row r="66" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>3352</v>
+        <v>3350</v>
       </c>
       <c r="B66" s="40">
         <v>1014</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3496</v>
-      </c>
-      <c r="D66" s="56" t="s">
-        <v>3748</v>
+        <v>3494</v>
+      </c>
+      <c r="D66" s="59" t="s">
+        <v>3744</v>
       </c>
       <c r="E66" s="40" t="s">
-        <v>3773</v>
-      </c>
+        <v>1306</v>
+      </c>
+      <c r="F66" s="40"/>
       <c r="G66" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H66" s="40">
         <v>1</v>
@@ -49192,22 +49186,23 @@
     </row>
     <row r="67" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>3353</v>
+        <v>3351</v>
       </c>
       <c r="B67" s="40">
         <v>1014</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>3497</v>
-      </c>
-      <c r="D67" s="56" t="s">
-        <v>3749</v>
+        <v>3495</v>
+      </c>
+      <c r="D67" s="59" t="s">
+        <v>3745</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>3773</v>
-      </c>
+        <v>1306</v>
+      </c>
+      <c r="F67" s="40"/>
       <c r="G67" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H67" s="40">
         <v>1</v>
@@ -49215,22 +49210,23 @@
     </row>
     <row r="68" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>3354</v>
+        <v>3352</v>
       </c>
       <c r="B68" s="40">
         <v>1014</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>3498</v>
-      </c>
-      <c r="D68" s="56" t="s">
-        <v>3750</v>
+        <v>3496</v>
+      </c>
+      <c r="D68" s="59" t="s">
+        <v>3746</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>3773</v>
-      </c>
+        <v>1306</v>
+      </c>
+      <c r="F68" s="40"/>
       <c r="G68" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H68" s="40">
         <v>1</v>
@@ -49238,22 +49234,23 @@
     </row>
     <row r="69" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>3355</v>
+        <v>3353</v>
       </c>
       <c r="B69" s="40">
         <v>1014</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>3499</v>
-      </c>
-      <c r="D69" s="56" t="s">
-        <v>3751</v>
+        <v>3497</v>
+      </c>
+      <c r="D69" s="59" t="s">
+        <v>3747</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>3773</v>
-      </c>
+        <v>1306</v>
+      </c>
+      <c r="F69" s="40"/>
       <c r="G69" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H69" s="40">
         <v>1</v>
@@ -49261,22 +49258,23 @@
     </row>
     <row r="70" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="B70" s="40">
         <v>1014</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3500</v>
-      </c>
-      <c r="D70" s="56" t="s">
+        <v>3498</v>
+      </c>
+      <c r="D70" s="59" t="s">
+        <v>3748</v>
+      </c>
+      <c r="E70" s="40" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40" t="s">
         <v>3752</v>
-      </c>
-      <c r="E70" s="40" t="s">
-        <v>3773</v>
-      </c>
-      <c r="G70" s="40" t="s">
-        <v>3756</v>
       </c>
       <c r="H70" s="40">
         <v>1</v>
@@ -49284,22 +49282,23 @@
     </row>
     <row r="71" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="B71" s="40">
         <v>1014</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>3501</v>
-      </c>
-      <c r="D71" s="56" t="s">
-        <v>3753</v>
+        <v>3499</v>
+      </c>
+      <c r="D71" s="59" t="s">
+        <v>3749</v>
       </c>
       <c r="E71" s="40" t="s">
-        <v>3773</v>
-      </c>
+        <v>1306</v>
+      </c>
+      <c r="F71" s="40"/>
       <c r="G71" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H71" s="40">
         <v>1</v>
@@ -49307,22 +49306,23 @@
     </row>
     <row r="72" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>3358</v>
+        <v>3356</v>
       </c>
       <c r="B72" s="40">
         <v>1014</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>3502</v>
-      </c>
-      <c r="D72" s="56" t="s">
-        <v>3754</v>
+        <v>3500</v>
+      </c>
+      <c r="D72" s="59" t="s">
+        <v>3750</v>
       </c>
       <c r="E72" s="40" t="s">
-        <v>3773</v>
-      </c>
+        <v>1306</v>
+      </c>
+      <c r="F72" s="40"/>
       <c r="G72" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H72" s="40">
         <v>1</v>
@@ -49330,22 +49330,23 @@
     </row>
     <row r="73" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>3359</v>
+        <v>3357</v>
       </c>
       <c r="B73" s="40">
         <v>1014</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>3503</v>
-      </c>
-      <c r="D73" s="56" t="s">
-        <v>3755</v>
+        <v>3501</v>
+      </c>
+      <c r="D73" s="59" t="s">
+        <v>3751</v>
       </c>
       <c r="E73" s="40" t="s">
-        <v>3773</v>
-      </c>
+        <v>1306</v>
+      </c>
+      <c r="F73" s="40"/>
       <c r="G73" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H73" s="40">
         <v>1</v>
@@ -49359,13 +49360,13 @@
         <v>1014</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>3504</v>
+        <v>3502</v>
       </c>
       <c r="E74" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G74" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H74" s="40">
         <v>1</v>
@@ -49379,13 +49380,13 @@
         <v>1014</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
       <c r="E75" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G75" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H75" s="40">
         <v>1</v>
@@ -49399,13 +49400,13 @@
         <v>1014</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G76" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H76" s="40">
         <v>1</v>
@@ -49419,13 +49420,13 @@
         <v>1014</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
       <c r="E77" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G77" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H77" s="40">
         <v>1</v>
@@ -49439,13 +49440,13 @@
         <v>1014</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>3508</v>
+        <v>3506</v>
       </c>
       <c r="E78" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G78" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H78" s="40">
         <v>1</v>
@@ -49459,13 +49460,13 @@
         <v>1014</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>3509</v>
+        <v>3507</v>
       </c>
       <c r="E79" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G79" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H79" s="40">
         <v>1</v>
@@ -49479,13 +49480,13 @@
         <v>1014</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>3510</v>
+        <v>3508</v>
       </c>
       <c r="E80" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G80" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H80" s="40">
         <v>1</v>
@@ -49499,13 +49500,13 @@
         <v>1014</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
       <c r="E81" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G81" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H81" s="40">
         <v>1</v>
@@ -49519,13 +49520,13 @@
         <v>1014</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="E82" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G82" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H82" s="40">
         <v>1</v>
@@ -49539,13 +49540,13 @@
         <v>1014</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
       <c r="E83" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G83" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H83" s="40">
         <v>1</v>
@@ -49559,13 +49560,13 @@
         <v>1014</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G84" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H84" s="40">
         <v>1</v>
@@ -49579,13 +49580,13 @@
         <v>1014</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
       <c r="E85" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G85" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H85" s="40">
         <v>1</v>
@@ -49599,13 +49600,13 @@
         <v>1014</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>3516</v>
+        <v>3514</v>
       </c>
       <c r="E86" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G86" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H86" s="40">
         <v>1</v>
@@ -49619,13 +49620,13 @@
         <v>1014</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="E87" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G87" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H87" s="40">
         <v>1</v>
@@ -49639,13 +49640,13 @@
         <v>1014</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>3518</v>
+        <v>3516</v>
       </c>
       <c r="E88" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G88" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H88" s="40">
         <v>1</v>
@@ -49659,13 +49660,13 @@
         <v>1014</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>3519</v>
+        <v>3517</v>
       </c>
       <c r="E89" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G89" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H89" s="40">
         <v>1</v>
@@ -49679,13 +49680,13 @@
         <v>1014</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
       <c r="E90" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G90" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H90" s="40">
         <v>1</v>
@@ -49699,13 +49700,13 @@
         <v>1014</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
       <c r="E91" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G91" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H91" s="40">
         <v>1</v>
@@ -49719,13 +49720,13 @@
         <v>1014</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>3522</v>
+        <v>3520</v>
       </c>
       <c r="E92" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G92" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H92" s="40">
         <v>1</v>
@@ -49739,13 +49740,13 @@
         <v>1014</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
       <c r="E93" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H93" s="40">
         <v>1</v>
@@ -49759,13 +49760,13 @@
         <v>1014</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G94" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H94" s="40">
         <v>1</v>
@@ -49779,13 +49780,13 @@
         <v>1014</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
       <c r="E95" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G95" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H95" s="40">
         <v>1</v>
@@ -49799,13 +49800,13 @@
         <v>1014</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
       <c r="E96" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G96" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H96" s="40">
         <v>1</v>
@@ -49819,13 +49820,13 @@
         <v>1014</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
       <c r="E97" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G97" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H97" s="40">
         <v>1</v>
@@ -49833,19 +49834,19 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>3384</v>
+        <v>3394</v>
       </c>
       <c r="B98" s="40">
         <v>1014</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
       <c r="E98" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G98" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H98" s="40">
         <v>1</v>
@@ -49853,19 +49854,19 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>3385</v>
+        <v>3395</v>
       </c>
       <c r="B99" s="40">
         <v>1014</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>3529</v>
+        <v>3527</v>
       </c>
       <c r="E99" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G99" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H99" s="40">
         <v>1</v>
@@ -49873,19 +49874,19 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>3386</v>
+        <v>3384</v>
       </c>
       <c r="B100" s="40">
         <v>1014</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>3530</v>
+        <v>3528</v>
       </c>
       <c r="E100" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G100" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H100" s="40">
         <v>1</v>
@@ -49893,19 +49894,19 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>3387</v>
+        <v>3385</v>
       </c>
       <c r="B101" s="40">
         <v>1014</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
       <c r="E101" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G101" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H101" s="40">
         <v>1</v>
@@ -49913,19 +49914,19 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>3388</v>
+        <v>3386</v>
       </c>
       <c r="B102" s="40">
         <v>1014</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>3532</v>
+        <v>3530</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G102" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H102" s="40">
         <v>1</v>
@@ -49933,19 +49934,19 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>3389</v>
+        <v>3387</v>
       </c>
       <c r="B103" s="40">
         <v>1014</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
       <c r="E103" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G103" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H103" s="40">
         <v>1</v>
@@ -49953,19 +49954,19 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>3390</v>
+        <v>3388</v>
       </c>
       <c r="B104" s="40">
         <v>1014</v>
       </c>
       <c r="C104" s="40" t="s">
-        <v>3534</v>
+        <v>3532</v>
       </c>
       <c r="E104" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G104" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H104" s="40">
         <v>1</v>
@@ -49973,19 +49974,19 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>3391</v>
+        <v>3389</v>
       </c>
       <c r="B105" s="40">
         <v>1014</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
       <c r="E105" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G105" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H105" s="40">
         <v>1</v>
@@ -49993,19 +49994,19 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>3392</v>
+        <v>3390</v>
       </c>
       <c r="B106" s="40">
         <v>1014</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>3536</v>
+        <v>3534</v>
       </c>
       <c r="E106" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G106" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H106" s="40">
         <v>1</v>
@@ -50013,19 +50014,19 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>3393</v>
+        <v>3391</v>
       </c>
       <c r="B107" s="40">
         <v>1014</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>3537</v>
+        <v>3535</v>
       </c>
       <c r="E107" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G107" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H107" s="40">
         <v>1</v>
@@ -50033,19 +50034,19 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>3394</v>
+        <v>3392</v>
       </c>
       <c r="B108" s="40">
         <v>1014</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
       <c r="E108" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G108" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H108" s="40">
         <v>1</v>
@@ -50053,19 +50054,19 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="B109" s="40">
         <v>1014</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>3539</v>
+        <v>3537</v>
       </c>
       <c r="E109" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G109" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H109" s="40">
         <v>1</v>
@@ -50073,19 +50074,19 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>3396</v>
+        <v>3406</v>
       </c>
       <c r="B110" s="40">
         <v>1014</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>3540</v>
+        <v>3548</v>
       </c>
       <c r="E110" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G110" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H110" s="40">
         <v>1</v>
@@ -50093,19 +50094,19 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>3397</v>
+        <v>3407</v>
       </c>
       <c r="B111" s="40">
         <v>1014</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>3541</v>
+        <v>3549</v>
       </c>
       <c r="E111" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G111" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H111" s="40">
         <v>1</v>
@@ -50113,19 +50114,19 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>3398</v>
+        <v>3396</v>
       </c>
       <c r="B112" s="40">
         <v>1014</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>3542</v>
+        <v>3538</v>
       </c>
       <c r="E112" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G112" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H112" s="40">
         <v>1</v>
@@ -50133,19 +50134,19 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>3399</v>
+        <v>3397</v>
       </c>
       <c r="B113" s="40">
         <v>1014</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>3543</v>
+        <v>3539</v>
       </c>
       <c r="E113" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G113" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H113" s="40">
         <v>1</v>
@@ -50153,19 +50154,19 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
       <c r="B114" s="40">
         <v>1014</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>3544</v>
+        <v>3540</v>
       </c>
       <c r="E114" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G114" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H114" s="40">
         <v>1</v>
@@ -50173,19 +50174,19 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
       <c r="B115" s="40">
         <v>1014</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>3545</v>
+        <v>3541</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G115" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H115" s="40">
         <v>1</v>
@@ -50193,19 +50194,19 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
       <c r="B116" s="40">
         <v>1014</v>
       </c>
       <c r="C116" s="40" t="s">
-        <v>3546</v>
+        <v>3542</v>
       </c>
       <c r="E116" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G116" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H116" s="40">
         <v>1</v>
@@ -50213,19 +50214,19 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>3403</v>
+        <v>3401</v>
       </c>
       <c r="B117" s="40">
         <v>1014</v>
       </c>
       <c r="C117" s="40" t="s">
-        <v>3547</v>
+        <v>3543</v>
       </c>
       <c r="E117" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G117" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H117" s="40">
         <v>1</v>
@@ -50233,19 +50234,19 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>3404</v>
+        <v>3402</v>
       </c>
       <c r="B118" s="40">
         <v>1014</v>
       </c>
       <c r="C118" s="40" t="s">
-        <v>3548</v>
+        <v>3544</v>
       </c>
       <c r="E118" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G118" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H118" s="40">
         <v>1</v>
@@ -50253,19 +50254,19 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
       <c r="B119" s="40">
         <v>1014</v>
       </c>
       <c r="C119" s="40" t="s">
-        <v>3549</v>
+        <v>3545</v>
       </c>
       <c r="E119" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G119" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H119" s="40">
         <v>1</v>
@@ -50273,19 +50274,19 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>3406</v>
+        <v>3404</v>
       </c>
       <c r="B120" s="40">
         <v>1014</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>3550</v>
+        <v>3546</v>
       </c>
       <c r="E120" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G120" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H120" s="40">
         <v>1</v>
@@ -50293,59 +50294,61 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>3407</v>
+        <v>3405</v>
       </c>
       <c r="B121" s="40">
         <v>1014</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>3551</v>
+        <v>3547</v>
       </c>
       <c r="E121" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G121" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H121" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>3408</v>
+      <c r="A122" s="40" t="s">
+        <v>3406</v>
       </c>
       <c r="B122" s="40">
         <v>1014</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>3552</v>
+        <v>3548</v>
       </c>
       <c r="E122" s="40" t="s">
-        <v>3773</v>
-      </c>
+        <v>1306</v>
+      </c>
+      <c r="F122" s="40"/>
       <c r="G122" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H122" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>3409</v>
+      <c r="A123" s="40" t="s">
+        <v>3407</v>
       </c>
       <c r="B123" s="40">
         <v>1014</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>3553</v>
+        <v>3549</v>
       </c>
       <c r="E123" s="40" t="s">
-        <v>3773</v>
-      </c>
+        <v>1306</v>
+      </c>
+      <c r="F123" s="40"/>
       <c r="G123" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H123" s="40">
         <v>1</v>
@@ -50353,19 +50356,19 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>3410</v>
+        <v>3408</v>
       </c>
       <c r="B124" s="40">
         <v>1014</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>3554</v>
+        <v>3550</v>
       </c>
       <c r="E124" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G124" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H124" s="40">
         <v>1</v>
@@ -50373,19 +50376,19 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
       <c r="B125" s="40">
         <v>1014</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>3555</v>
+        <v>3551</v>
       </c>
       <c r="E125" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G125" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H125" s="40">
         <v>1</v>
@@ -50393,19 +50396,19 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>3412</v>
+        <v>3410</v>
       </c>
       <c r="B126" s="40">
         <v>1014</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>3556</v>
+        <v>3552</v>
       </c>
       <c r="E126" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G126" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H126" s="40">
         <v>1</v>
@@ -50413,19 +50416,19 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>3413</v>
+        <v>3411</v>
       </c>
       <c r="B127" s="40">
         <v>1014</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>3557</v>
+        <v>3553</v>
       </c>
       <c r="E127" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G127" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H127" s="40">
         <v>1</v>
@@ -50433,19 +50436,19 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
       <c r="B128" s="40">
         <v>1014</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>3558</v>
+        <v>3554</v>
       </c>
       <c r="E128" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G128" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H128" s="40">
         <v>1</v>
@@ -50453,19 +50456,19 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
       <c r="B129" s="40">
         <v>1014</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>3559</v>
+        <v>3555</v>
       </c>
       <c r="E129" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G129" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H129" s="40">
         <v>1</v>
@@ -50473,19 +50476,19 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
       <c r="B130" s="40">
         <v>1014</v>
       </c>
       <c r="C130" s="40" t="s">
-        <v>3560</v>
+        <v>3556</v>
       </c>
       <c r="E130" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G130" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H130" s="40">
         <v>1</v>
@@ -50493,19 +50496,19 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
       <c r="B131" s="40">
         <v>1014</v>
       </c>
       <c r="C131" s="40" t="s">
-        <v>3561</v>
+        <v>3557</v>
       </c>
       <c r="E131" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G131" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H131" s="40">
         <v>1</v>
@@ -50513,19 +50516,19 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>3418</v>
+        <v>3416</v>
       </c>
       <c r="B132" s="40">
         <v>1014</v>
       </c>
       <c r="C132" s="40" t="s">
-        <v>3562</v>
+        <v>3558</v>
       </c>
       <c r="E132" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G132" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H132" s="40">
         <v>1</v>
@@ -50533,59 +50536,61 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
       <c r="B133" s="40">
         <v>1014</v>
       </c>
       <c r="C133" s="40" t="s">
-        <v>3563</v>
+        <v>3559</v>
       </c>
       <c r="E133" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G133" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H133" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>3420</v>
+        <v>3428</v>
       </c>
       <c r="B134" s="40">
         <v>1014</v>
       </c>
       <c r="C134" s="40" t="s">
-        <v>3564</v>
-      </c>
+        <v>3560</v>
+      </c>
+      <c r="D134" s="59"/>
       <c r="E134" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G134" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H134" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>3421</v>
+        <v>3429</v>
       </c>
       <c r="B135" s="40">
         <v>1014</v>
       </c>
       <c r="C135" s="40" t="s">
-        <v>3565</v>
-      </c>
+        <v>3561</v>
+      </c>
+      <c r="D135" s="59"/>
       <c r="E135" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G135" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H135" s="40">
         <v>1</v>
@@ -50593,19 +50598,19 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>3422</v>
+        <v>3418</v>
       </c>
       <c r="B136" s="40">
         <v>1014</v>
       </c>
       <c r="C136" s="40" t="s">
-        <v>3566</v>
+        <v>3562</v>
       </c>
       <c r="E136" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G136" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H136" s="40">
         <v>1</v>
@@ -50613,19 +50618,19 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>3423</v>
+        <v>3419</v>
       </c>
       <c r="B137" s="40">
         <v>1014</v>
       </c>
       <c r="C137" s="40" t="s">
-        <v>3567</v>
+        <v>3563</v>
       </c>
       <c r="E137" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G137" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H137" s="40">
         <v>1</v>
@@ -50633,19 +50638,19 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>3424</v>
+        <v>3420</v>
       </c>
       <c r="B138" s="40">
         <v>1014</v>
       </c>
       <c r="C138" s="40" t="s">
-        <v>3568</v>
+        <v>3564</v>
       </c>
       <c r="E138" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G138" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H138" s="40">
         <v>1</v>
@@ -50653,19 +50658,19 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>3425</v>
+        <v>3421</v>
       </c>
       <c r="B139" s="40">
         <v>1014</v>
       </c>
       <c r="C139" s="40" t="s">
-        <v>3569</v>
+        <v>3565</v>
       </c>
       <c r="E139" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G139" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H139" s="40">
         <v>1</v>
@@ -50673,19 +50678,19 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>3426</v>
+        <v>3422</v>
       </c>
       <c r="B140" s="40">
         <v>1014</v>
       </c>
       <c r="C140" s="40" t="s">
-        <v>3570</v>
+        <v>3566</v>
       </c>
       <c r="E140" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G140" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H140" s="40">
         <v>1</v>
@@ -50693,19 +50698,19 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>3427</v>
+        <v>3423</v>
       </c>
       <c r="B141" s="40">
         <v>1014</v>
       </c>
       <c r="C141" s="40" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E141" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G141" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H141" s="40">
         <v>1</v>
@@ -50713,19 +50718,19 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>3428</v>
+        <v>3424</v>
       </c>
       <c r="B142" s="40">
         <v>1014</v>
       </c>
       <c r="C142" s="40" t="s">
-        <v>3572</v>
+        <v>3568</v>
       </c>
       <c r="E142" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G142" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H142" s="40">
         <v>1</v>
@@ -50733,19 +50738,19 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>3429</v>
+        <v>3425</v>
       </c>
       <c r="B143" s="40">
         <v>1014</v>
       </c>
       <c r="C143" s="40" t="s">
-        <v>3573</v>
+        <v>3569</v>
       </c>
       <c r="E143" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G143" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H143" s="40">
         <v>1</v>
@@ -50753,19 +50758,19 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>3430</v>
+        <v>3426</v>
       </c>
       <c r="B144" s="40">
         <v>1014</v>
       </c>
       <c r="C144" s="40" t="s">
-        <v>3574</v>
+        <v>3570</v>
       </c>
       <c r="E144" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G144" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H144" s="40">
         <v>1</v>
@@ -50773,19 +50778,19 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>3431</v>
+        <v>3427</v>
       </c>
       <c r="B145" s="40">
         <v>1014</v>
       </c>
       <c r="C145" s="40" t="s">
-        <v>3575</v>
+        <v>3571</v>
       </c>
       <c r="E145" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G145" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H145" s="40">
         <v>1</v>
@@ -50793,20 +50798,20 @@
     </row>
     <row r="146" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="40" t="s">
-        <v>3648</v>
+        <v>3644</v>
       </c>
       <c r="B146" s="40">
         <v>1014</v>
       </c>
       <c r="C146" s="40" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="D146" s="56"/>
       <c r="E146" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G146" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H146" s="40">
         <v>1</v>
@@ -50814,20 +50819,20 @@
     </row>
     <row r="147" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="40" t="s">
-        <v>3649</v>
+        <v>3645</v>
       </c>
       <c r="B147" s="40">
         <v>1014</v>
       </c>
       <c r="C147" s="40" t="s">
-        <v>3577</v>
+        <v>3573</v>
       </c>
       <c r="D147" s="56"/>
       <c r="E147" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G147" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H147" s="40">
         <v>1</v>
@@ -50835,20 +50840,20 @@
     </row>
     <row r="148" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="40" t="s">
-        <v>3650</v>
+        <v>3646</v>
       </c>
       <c r="B148" s="40">
         <v>1014</v>
       </c>
       <c r="C148" s="40" t="s">
-        <v>3578</v>
+        <v>3574</v>
       </c>
       <c r="D148" s="56"/>
       <c r="E148" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G148" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H148" s="40">
         <v>1</v>
@@ -50856,20 +50861,20 @@
     </row>
     <row r="149" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="40" t="s">
-        <v>3651</v>
+        <v>3647</v>
       </c>
       <c r="B149" s="40">
         <v>1014</v>
       </c>
       <c r="C149" s="40" t="s">
-        <v>3579</v>
+        <v>3575</v>
       </c>
       <c r="D149" s="56"/>
       <c r="E149" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G149" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H149" s="40">
         <v>1</v>
@@ -50877,20 +50882,20 @@
     </row>
     <row r="150" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="40" t="s">
-        <v>3652</v>
+        <v>3648</v>
       </c>
       <c r="B150" s="40">
         <v>1014</v>
       </c>
       <c r="C150" s="40" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="D150" s="56"/>
       <c r="E150" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G150" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H150" s="40">
         <v>1</v>
@@ -50898,20 +50903,20 @@
     </row>
     <row r="151" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="40" t="s">
-        <v>3653</v>
+        <v>3649</v>
       </c>
       <c r="B151" s="40">
         <v>1014</v>
       </c>
       <c r="C151" s="40" t="s">
-        <v>3581</v>
+        <v>3577</v>
       </c>
       <c r="D151" s="56"/>
       <c r="E151" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G151" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H151" s="40">
         <v>1</v>
@@ -50919,20 +50924,20 @@
     </row>
     <row r="152" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="40" t="s">
-        <v>3654</v>
+        <v>3650</v>
       </c>
       <c r="B152" s="40">
         <v>1014</v>
       </c>
       <c r="C152" s="40" t="s">
-        <v>3582</v>
+        <v>3578</v>
       </c>
       <c r="D152" s="56"/>
       <c r="E152" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G152" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H152" s="40">
         <v>1</v>
@@ -50940,20 +50945,20 @@
     </row>
     <row r="153" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="40" t="s">
-        <v>3655</v>
+        <v>3651</v>
       </c>
       <c r="B153" s="40">
         <v>1014</v>
       </c>
       <c r="C153" s="40" t="s">
-        <v>3583</v>
+        <v>3579</v>
       </c>
       <c r="D153" s="56"/>
       <c r="E153" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G153" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H153" s="40">
         <v>1</v>
@@ -50961,20 +50966,20 @@
     </row>
     <row r="154" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="40" t="s">
-        <v>3656</v>
+        <v>3652</v>
       </c>
       <c r="B154" s="40">
         <v>1014</v>
       </c>
       <c r="C154" s="40" t="s">
-        <v>3584</v>
+        <v>3580</v>
       </c>
       <c r="D154" s="56"/>
       <c r="E154" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G154" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H154" s="40">
         <v>1</v>
@@ -50982,20 +50987,20 @@
     </row>
     <row r="155" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="40" t="s">
-        <v>3657</v>
+        <v>3653</v>
       </c>
       <c r="B155" s="40">
         <v>1014</v>
       </c>
       <c r="C155" s="40" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="D155" s="56"/>
       <c r="E155" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G155" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H155" s="40">
         <v>1</v>
@@ -51003,20 +51008,20 @@
     </row>
     <row r="156" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="40" t="s">
-        <v>3658</v>
+        <v>3654</v>
       </c>
       <c r="B156" s="40">
         <v>1014</v>
       </c>
       <c r="C156" s="40" t="s">
-        <v>3586</v>
+        <v>3582</v>
       </c>
       <c r="D156" s="56"/>
       <c r="E156" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G156" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H156" s="40">
         <v>1</v>
@@ -51024,20 +51029,20 @@
     </row>
     <row r="157" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="40" t="s">
-        <v>3659</v>
+        <v>3655</v>
       </c>
       <c r="B157" s="40">
         <v>1014</v>
       </c>
       <c r="C157" s="40" t="s">
-        <v>3587</v>
+        <v>3583</v>
       </c>
       <c r="D157" s="56"/>
       <c r="E157" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G157" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H157" s="40">
         <v>1</v>
@@ -51045,41 +51050,41 @@
     </row>
     <row r="158" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="40" t="s">
-        <v>3660</v>
+        <v>3656</v>
       </c>
       <c r="B158" s="40">
         <v>1014</v>
       </c>
       <c r="C158" s="40" t="s">
-        <v>3588</v>
+        <v>3584</v>
       </c>
       <c r="D158" s="56"/>
       <c r="E158" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G158" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H158" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="40" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="40" t="s">
-        <v>3661</v>
+        <v>3657</v>
       </c>
       <c r="B159" s="40">
         <v>1014</v>
       </c>
       <c r="C159" s="40" t="s">
-        <v>3589</v>
+        <v>3585</v>
       </c>
       <c r="D159" s="56"/>
       <c r="E159" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G159" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H159" s="40">
         <v>1</v>
@@ -51087,20 +51092,20 @@
     </row>
     <row r="160" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="40" t="s">
-        <v>3662</v>
+        <v>3658</v>
       </c>
       <c r="B160" s="40">
         <v>1014</v>
       </c>
       <c r="C160" s="40" t="s">
-        <v>3590</v>
+        <v>3586</v>
       </c>
       <c r="D160" s="56"/>
       <c r="E160" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G160" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H160" s="40">
         <v>1</v>
@@ -51108,20 +51113,20 @@
     </row>
     <row r="161" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="40" t="s">
-        <v>3663</v>
+        <v>3659</v>
       </c>
       <c r="B161" s="40">
         <v>1014</v>
       </c>
       <c r="C161" s="40" t="s">
-        <v>3591</v>
+        <v>3587</v>
       </c>
       <c r="D161" s="56"/>
       <c r="E161" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G161" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H161" s="40">
         <v>1</v>
@@ -51129,20 +51134,20 @@
     </row>
     <row r="162" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="40" t="s">
-        <v>3664</v>
+        <v>3660</v>
       </c>
       <c r="B162" s="40">
         <v>1014</v>
       </c>
       <c r="C162" s="40" t="s">
-        <v>3592</v>
+        <v>3588</v>
       </c>
       <c r="D162" s="56"/>
       <c r="E162" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G162" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H162" s="40">
         <v>1</v>
@@ -51150,20 +51155,20 @@
     </row>
     <row r="163" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="40" t="s">
-        <v>3665</v>
+        <v>3661</v>
       </c>
       <c r="B163" s="40">
         <v>1014</v>
       </c>
       <c r="C163" s="40" t="s">
-        <v>3593</v>
+        <v>3589</v>
       </c>
       <c r="D163" s="56"/>
       <c r="E163" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G163" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H163" s="40">
         <v>1</v>
@@ -51171,20 +51176,20 @@
     </row>
     <row r="164" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="40" t="s">
-        <v>3666</v>
+        <v>3662</v>
       </c>
       <c r="B164" s="40">
         <v>1014</v>
       </c>
       <c r="C164" s="40" t="s">
-        <v>3594</v>
+        <v>3590</v>
       </c>
       <c r="D164" s="56"/>
       <c r="E164" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G164" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H164" s="40">
         <v>1</v>
@@ -51192,20 +51197,20 @@
     </row>
     <row r="165" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="40" t="s">
-        <v>3667</v>
+        <v>3663</v>
       </c>
       <c r="B165" s="40">
         <v>1014</v>
       </c>
       <c r="C165" s="40" t="s">
-        <v>3595</v>
+        <v>3591</v>
       </c>
       <c r="D165" s="56"/>
       <c r="E165" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G165" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H165" s="40">
         <v>1</v>
@@ -51213,20 +51218,20 @@
     </row>
     <row r="166" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="40" t="s">
-        <v>3668</v>
+        <v>3664</v>
       </c>
       <c r="B166" s="40">
         <v>1014</v>
       </c>
       <c r="C166" s="40" t="s">
-        <v>3596</v>
+        <v>3592</v>
       </c>
       <c r="D166" s="56"/>
       <c r="E166" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G166" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H166" s="40">
         <v>1</v>
@@ -51234,20 +51239,20 @@
     </row>
     <row r="167" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="40" t="s">
-        <v>3669</v>
+        <v>3665</v>
       </c>
       <c r="B167" s="40">
         <v>1014</v>
       </c>
       <c r="C167" s="40" t="s">
-        <v>3597</v>
+        <v>3593</v>
       </c>
       <c r="D167" s="56"/>
       <c r="E167" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G167" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H167" s="40">
         <v>1</v>
@@ -51255,20 +51260,20 @@
     </row>
     <row r="168" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="40" t="s">
-        <v>3670</v>
+        <v>3666</v>
       </c>
       <c r="B168" s="40">
         <v>1014</v>
       </c>
       <c r="C168" s="40" t="s">
-        <v>3598</v>
+        <v>3594</v>
       </c>
       <c r="D168" s="56"/>
       <c r="E168" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G168" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H168" s="40">
         <v>1</v>
@@ -51276,20 +51281,20 @@
     </row>
     <row r="169" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="40" t="s">
-        <v>3671</v>
+        <v>3667</v>
       </c>
       <c r="B169" s="40">
         <v>1014</v>
       </c>
       <c r="C169" s="40" t="s">
-        <v>3599</v>
+        <v>3595</v>
       </c>
       <c r="D169" s="56"/>
       <c r="E169" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H169" s="40">
         <v>1</v>
@@ -51297,20 +51302,20 @@
     </row>
     <row r="170" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="40" t="s">
-        <v>3672</v>
+        <v>3678</v>
       </c>
       <c r="B170" s="40">
         <v>1014</v>
       </c>
       <c r="C170" s="40" t="s">
-        <v>3600</v>
+        <v>3596</v>
       </c>
       <c r="D170" s="56"/>
       <c r="E170" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G170" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H170" s="40">
         <v>1</v>
@@ -51318,20 +51323,20 @@
     </row>
     <row r="171" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="40" t="s">
-        <v>3673</v>
+        <v>3679</v>
       </c>
       <c r="B171" s="40">
         <v>1014</v>
       </c>
       <c r="C171" s="40" t="s">
-        <v>3601</v>
+        <v>3597</v>
       </c>
       <c r="D171" s="56"/>
       <c r="E171" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G171" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H171" s="40">
         <v>1</v>
@@ -51339,20 +51344,20 @@
     </row>
     <row r="172" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="40" t="s">
-        <v>3674</v>
+        <v>3668</v>
       </c>
       <c r="B172" s="40">
         <v>1014</v>
       </c>
       <c r="C172" s="40" t="s">
-        <v>3602</v>
+        <v>3598</v>
       </c>
       <c r="D172" s="56"/>
       <c r="E172" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G172" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H172" s="40">
         <v>1</v>
@@ -51360,20 +51365,20 @@
     </row>
     <row r="173" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="40" t="s">
-        <v>3675</v>
+        <v>3669</v>
       </c>
       <c r="B173" s="40">
         <v>1014</v>
       </c>
       <c r="C173" s="40" t="s">
-        <v>3603</v>
+        <v>3599</v>
       </c>
       <c r="D173" s="56"/>
       <c r="E173" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G173" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H173" s="40">
         <v>1</v>
@@ -51381,20 +51386,20 @@
     </row>
     <row r="174" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="40" t="s">
-        <v>3676</v>
+        <v>3670</v>
       </c>
       <c r="B174" s="40">
         <v>1014</v>
       </c>
       <c r="C174" s="40" t="s">
-        <v>3604</v>
+        <v>3600</v>
       </c>
       <c r="D174" s="56"/>
       <c r="E174" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G174" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H174" s="40">
         <v>1</v>
@@ -51402,20 +51407,20 @@
     </row>
     <row r="175" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="40" t="s">
-        <v>3677</v>
+        <v>3671</v>
       </c>
       <c r="B175" s="40">
         <v>1014</v>
       </c>
       <c r="C175" s="40" t="s">
-        <v>3605</v>
+        <v>3601</v>
       </c>
       <c r="D175" s="56"/>
       <c r="E175" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G175" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H175" s="40">
         <v>1</v>
@@ -51423,20 +51428,20 @@
     </row>
     <row r="176" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="40" t="s">
-        <v>3678</v>
+        <v>3672</v>
       </c>
       <c r="B176" s="40">
         <v>1014</v>
       </c>
       <c r="C176" s="40" t="s">
-        <v>3606</v>
+        <v>3602</v>
       </c>
       <c r="D176" s="56"/>
       <c r="E176" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G176" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H176" s="40">
         <v>1</v>
@@ -51444,20 +51449,20 @@
     </row>
     <row r="177" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="40" t="s">
-        <v>3679</v>
+        <v>3673</v>
       </c>
       <c r="B177" s="40">
         <v>1014</v>
       </c>
       <c r="C177" s="40" t="s">
-        <v>3607</v>
+        <v>3603</v>
       </c>
       <c r="D177" s="56"/>
       <c r="E177" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G177" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H177" s="40">
         <v>1</v>
@@ -51465,20 +51470,20 @@
     </row>
     <row r="178" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="40" t="s">
-        <v>3680</v>
+        <v>3674</v>
       </c>
       <c r="B178" s="40">
         <v>1014</v>
       </c>
       <c r="C178" s="40" t="s">
-        <v>3608</v>
+        <v>3604</v>
       </c>
       <c r="D178" s="56"/>
       <c r="E178" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G178" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H178" s="40">
         <v>1</v>
@@ -51486,20 +51491,20 @@
     </row>
     <row r="179" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="40" t="s">
-        <v>3681</v>
+        <v>3675</v>
       </c>
       <c r="B179" s="40">
         <v>1014</v>
       </c>
       <c r="C179" s="40" t="s">
-        <v>3609</v>
+        <v>3605</v>
       </c>
       <c r="D179" s="56"/>
       <c r="E179" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G179" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H179" s="40">
         <v>1</v>
@@ -51507,20 +51512,20 @@
     </row>
     <row r="180" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="40" t="s">
-        <v>3682</v>
+        <v>3676</v>
       </c>
       <c r="B180" s="40">
         <v>1014</v>
       </c>
       <c r="C180" s="40" t="s">
-        <v>3610</v>
+        <v>3606</v>
       </c>
       <c r="D180" s="56"/>
       <c r="E180" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G180" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H180" s="40">
         <v>1</v>
@@ -51528,20 +51533,20 @@
     </row>
     <row r="181" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="40" t="s">
-        <v>3683</v>
+        <v>3677</v>
       </c>
       <c r="B181" s="40">
         <v>1014</v>
       </c>
       <c r="C181" s="40" t="s">
-        <v>3611</v>
+        <v>3607</v>
       </c>
       <c r="D181" s="56"/>
       <c r="E181" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G181" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H181" s="40">
         <v>1</v>
@@ -51549,20 +51554,20 @@
     </row>
     <row r="182" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="40" t="s">
-        <v>3684</v>
+        <v>3680</v>
       </c>
       <c r="B182" s="40">
         <v>1014</v>
       </c>
       <c r="C182" s="40" t="s">
-        <v>3612</v>
+        <v>3608</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G182" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H182" s="40">
         <v>1</v>
@@ -51570,20 +51575,20 @@
     </row>
     <row r="183" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="40" t="s">
-        <v>3685</v>
+        <v>3681</v>
       </c>
       <c r="B183" s="40">
         <v>1014</v>
       </c>
       <c r="C183" s="40" t="s">
-        <v>3613</v>
+        <v>3609</v>
       </c>
       <c r="D183" s="56"/>
       <c r="E183" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G183" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H183" s="40">
         <v>1</v>
@@ -51591,20 +51596,20 @@
     </row>
     <row r="184" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="40" t="s">
-        <v>3686</v>
+        <v>3682</v>
       </c>
       <c r="B184" s="40">
         <v>1014</v>
       </c>
       <c r="C184" s="40" t="s">
-        <v>3614</v>
+        <v>3610</v>
       </c>
       <c r="D184" s="56"/>
       <c r="E184" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G184" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H184" s="40">
         <v>1</v>
@@ -51612,20 +51617,20 @@
     </row>
     <row r="185" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="40" t="s">
-        <v>3687</v>
+        <v>3683</v>
       </c>
       <c r="B185" s="40">
         <v>1014</v>
       </c>
       <c r="C185" s="40" t="s">
-        <v>3615</v>
+        <v>3611</v>
       </c>
       <c r="D185" s="56"/>
       <c r="E185" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G185" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H185" s="40">
         <v>1</v>
@@ -51633,20 +51638,20 @@
     </row>
     <row r="186" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="40" t="s">
-        <v>3688</v>
+        <v>3684</v>
       </c>
       <c r="B186" s="40">
         <v>1014</v>
       </c>
       <c r="C186" s="40" t="s">
-        <v>3616</v>
+        <v>3612</v>
       </c>
       <c r="D186" s="56"/>
       <c r="E186" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G186" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H186" s="40">
         <v>1</v>
@@ -51654,20 +51659,20 @@
     </row>
     <row r="187" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="40" t="s">
-        <v>3689</v>
+        <v>3685</v>
       </c>
       <c r="B187" s="40">
         <v>1014</v>
       </c>
       <c r="C187" s="40" t="s">
-        <v>3617</v>
+        <v>3613</v>
       </c>
       <c r="D187" s="56"/>
       <c r="E187" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G187" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H187" s="40">
         <v>1</v>
@@ -51675,20 +51680,20 @@
     </row>
     <row r="188" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="40" t="s">
-        <v>3690</v>
+        <v>3686</v>
       </c>
       <c r="B188" s="40">
         <v>1014</v>
       </c>
       <c r="C188" s="40" t="s">
-        <v>3618</v>
+        <v>3614</v>
       </c>
       <c r="D188" s="56"/>
       <c r="E188" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G188" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H188" s="40">
         <v>1</v>
@@ -51696,20 +51701,20 @@
     </row>
     <row r="189" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="40" t="s">
-        <v>3691</v>
+        <v>3687</v>
       </c>
       <c r="B189" s="40">
         <v>1014</v>
       </c>
       <c r="C189" s="40" t="s">
-        <v>3619</v>
+        <v>3615</v>
       </c>
       <c r="D189" s="56"/>
       <c r="E189" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G189" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H189" s="40">
         <v>1</v>
@@ -51717,20 +51722,20 @@
     </row>
     <row r="190" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="40" t="s">
-        <v>3692</v>
+        <v>3688</v>
       </c>
       <c r="B190" s="40">
         <v>1014</v>
       </c>
       <c r="C190" s="40" t="s">
-        <v>3620</v>
+        <v>3616</v>
       </c>
       <c r="D190" s="56"/>
       <c r="E190" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G190" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H190" s="40">
         <v>1</v>
@@ -51738,20 +51743,20 @@
     </row>
     <row r="191" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="40" t="s">
-        <v>3693</v>
+        <v>3689</v>
       </c>
       <c r="B191" s="40">
         <v>1014</v>
       </c>
       <c r="C191" s="40" t="s">
-        <v>3621</v>
+        <v>3617</v>
       </c>
       <c r="D191" s="56"/>
       <c r="E191" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G191" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H191" s="40">
         <v>1</v>
@@ -51759,20 +51764,20 @@
     </row>
     <row r="192" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="40" t="s">
-        <v>3694</v>
+        <v>3690</v>
       </c>
       <c r="B192" s="40">
         <v>1014</v>
       </c>
       <c r="C192" s="40" t="s">
-        <v>3622</v>
+        <v>3618</v>
       </c>
       <c r="D192" s="56"/>
       <c r="E192" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G192" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H192" s="40">
         <v>1</v>
@@ -51780,20 +51785,20 @@
     </row>
     <row r="193" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="40" t="s">
-        <v>3695</v>
+        <v>3691</v>
       </c>
       <c r="B193" s="40">
         <v>1014</v>
       </c>
       <c r="C193" s="40" t="s">
-        <v>3623</v>
+        <v>3619</v>
       </c>
       <c r="D193" s="56"/>
       <c r="E193" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G193" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H193" s="40">
         <v>1</v>
@@ -51801,20 +51806,20 @@
     </row>
     <row r="194" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="40" t="s">
-        <v>3696</v>
+        <v>3692</v>
       </c>
       <c r="B194" s="40">
         <v>1014</v>
       </c>
       <c r="C194" s="40" t="s">
-        <v>3624</v>
+        <v>3620</v>
       </c>
       <c r="D194" s="56"/>
       <c r="E194" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G194" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H194" s="40">
         <v>1</v>
@@ -51822,20 +51827,20 @@
     </row>
     <row r="195" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="40" t="s">
-        <v>3697</v>
+        <v>3693</v>
       </c>
       <c r="B195" s="40">
         <v>1014</v>
       </c>
       <c r="C195" s="40" t="s">
-        <v>3625</v>
+        <v>3621</v>
       </c>
       <c r="D195" s="56"/>
       <c r="E195" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G195" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H195" s="40">
         <v>1</v>
@@ -51843,20 +51848,20 @@
     </row>
     <row r="196" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="40" t="s">
-        <v>3698</v>
+        <v>3694</v>
       </c>
       <c r="B196" s="40">
         <v>1014</v>
       </c>
       <c r="C196" s="40" t="s">
-        <v>3626</v>
+        <v>3622</v>
       </c>
       <c r="D196" s="56"/>
       <c r="E196" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G196" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H196" s="40">
         <v>1</v>
@@ -51864,20 +51869,20 @@
     </row>
     <row r="197" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="40" t="s">
-        <v>3699</v>
+        <v>3695</v>
       </c>
       <c r="B197" s="40">
         <v>1014</v>
       </c>
       <c r="C197" s="40" t="s">
-        <v>3627</v>
+        <v>3623</v>
       </c>
       <c r="D197" s="56"/>
       <c r="E197" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G197" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H197" s="40">
         <v>1</v>
@@ -51885,20 +51890,20 @@
     </row>
     <row r="198" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="40" t="s">
-        <v>3700</v>
+        <v>3696</v>
       </c>
       <c r="B198" s="40">
         <v>1014</v>
       </c>
       <c r="C198" s="40" t="s">
-        <v>3628</v>
+        <v>3624</v>
       </c>
       <c r="D198" s="56"/>
       <c r="E198" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G198" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H198" s="40">
         <v>1</v>
@@ -51906,20 +51911,20 @@
     </row>
     <row r="199" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="40" t="s">
-        <v>3701</v>
+        <v>3697</v>
       </c>
       <c r="B199" s="40">
         <v>1014</v>
       </c>
       <c r="C199" s="40" t="s">
-        <v>3629</v>
+        <v>3625</v>
       </c>
       <c r="D199" s="56"/>
       <c r="E199" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G199" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H199" s="40">
         <v>1</v>
@@ -51927,20 +51932,20 @@
     </row>
     <row r="200" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="40" t="s">
-        <v>3702</v>
+        <v>3698</v>
       </c>
       <c r="B200" s="40">
         <v>1014</v>
       </c>
       <c r="C200" s="40" t="s">
-        <v>3630</v>
+        <v>3626</v>
       </c>
       <c r="D200" s="56"/>
       <c r="E200" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G200" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H200" s="40">
         <v>1</v>
@@ -51948,20 +51953,20 @@
     </row>
     <row r="201" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="40" t="s">
-        <v>3703</v>
+        <v>3699</v>
       </c>
       <c r="B201" s="40">
         <v>1014</v>
       </c>
       <c r="C201" s="40" t="s">
-        <v>3631</v>
+        <v>3627</v>
       </c>
       <c r="D201" s="56"/>
       <c r="E201" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G201" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H201" s="40">
         <v>1</v>
@@ -51969,20 +51974,20 @@
     </row>
     <row r="202" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="40" t="s">
-        <v>3704</v>
+        <v>3700</v>
       </c>
       <c r="B202" s="40">
         <v>1014</v>
       </c>
       <c r="C202" s="40" t="s">
-        <v>3632</v>
+        <v>3628</v>
       </c>
       <c r="D202" s="56"/>
       <c r="E202" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G202" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H202" s="40">
         <v>1</v>
@@ -51990,20 +51995,20 @@
     </row>
     <row r="203" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="40" t="s">
-        <v>3705</v>
+        <v>3701</v>
       </c>
       <c r="B203" s="40">
         <v>1014</v>
       </c>
       <c r="C203" s="40" t="s">
-        <v>3633</v>
+        <v>3629</v>
       </c>
       <c r="D203" s="56"/>
       <c r="E203" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G203" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H203" s="40">
         <v>1</v>
@@ -52011,20 +52016,20 @@
     </row>
     <row r="204" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="40" t="s">
-        <v>3706</v>
+        <v>3702</v>
       </c>
       <c r="B204" s="40">
         <v>1014</v>
       </c>
       <c r="C204" s="40" t="s">
-        <v>3634</v>
+        <v>3630</v>
       </c>
       <c r="D204" s="56"/>
       <c r="E204" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G204" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H204" s="40">
         <v>1</v>
@@ -52032,20 +52037,20 @@
     </row>
     <row r="205" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="40" t="s">
-        <v>3707</v>
+        <v>3703</v>
       </c>
       <c r="B205" s="40">
         <v>1014</v>
       </c>
       <c r="C205" s="40" t="s">
-        <v>3635</v>
+        <v>3631</v>
       </c>
       <c r="D205" s="56"/>
       <c r="E205" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G205" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H205" s="40">
         <v>1</v>
@@ -52053,20 +52058,20 @@
     </row>
     <row r="206" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="40" t="s">
-        <v>3708</v>
+        <v>3714</v>
       </c>
       <c r="B206" s="40">
         <v>1014</v>
       </c>
       <c r="C206" s="40" t="s">
-        <v>3636</v>
+        <v>3632</v>
       </c>
       <c r="D206" s="56"/>
       <c r="E206" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G206" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H206" s="40">
         <v>1</v>
@@ -52074,20 +52079,20 @@
     </row>
     <row r="207" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="40" t="s">
-        <v>3709</v>
+        <v>3715</v>
       </c>
       <c r="B207" s="40">
         <v>1014</v>
       </c>
       <c r="C207" s="40" t="s">
-        <v>3637</v>
+        <v>3633</v>
       </c>
       <c r="D207" s="56"/>
       <c r="E207" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G207" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H207" s="40">
         <v>1</v>
@@ -52095,20 +52100,20 @@
     </row>
     <row r="208" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="40" t="s">
-        <v>3710</v>
+        <v>3704</v>
       </c>
       <c r="B208" s="40">
         <v>1014</v>
       </c>
       <c r="C208" s="40" t="s">
-        <v>3638</v>
+        <v>3634</v>
       </c>
       <c r="D208" s="56"/>
       <c r="E208" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G208" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H208" s="40">
         <v>1</v>
@@ -52116,20 +52121,20 @@
     </row>
     <row r="209" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="40" t="s">
-        <v>3711</v>
+        <v>3705</v>
       </c>
       <c r="B209" s="40">
         <v>1014</v>
       </c>
       <c r="C209" s="40" t="s">
-        <v>3639</v>
+        <v>3635</v>
       </c>
       <c r="D209" s="56"/>
       <c r="E209" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G209" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H209" s="40">
         <v>1</v>
@@ -52137,20 +52142,20 @@
     </row>
     <row r="210" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="40" t="s">
-        <v>3712</v>
+        <v>3706</v>
       </c>
       <c r="B210" s="40">
         <v>1014</v>
       </c>
       <c r="C210" s="40" t="s">
-        <v>3640</v>
+        <v>3636</v>
       </c>
       <c r="D210" s="56"/>
       <c r="E210" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G210" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H210" s="40">
         <v>1</v>
@@ -52158,20 +52163,20 @@
     </row>
     <row r="211" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="40" t="s">
-        <v>3713</v>
+        <v>3707</v>
       </c>
       <c r="B211" s="40">
         <v>1014</v>
       </c>
       <c r="C211" s="40" t="s">
-        <v>3641</v>
+        <v>3637</v>
       </c>
       <c r="D211" s="56"/>
       <c r="E211" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G211" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H211" s="40">
         <v>1</v>
@@ -52179,20 +52184,20 @@
     </row>
     <row r="212" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="40" t="s">
-        <v>3714</v>
+        <v>3708</v>
       </c>
       <c r="B212" s="40">
         <v>1014</v>
       </c>
       <c r="C212" s="40" t="s">
-        <v>3642</v>
+        <v>3638</v>
       </c>
       <c r="D212" s="56"/>
       <c r="E212" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G212" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H212" s="40">
         <v>1</v>
@@ -52200,20 +52205,20 @@
     </row>
     <row r="213" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="40" t="s">
-        <v>3715</v>
+        <v>3709</v>
       </c>
       <c r="B213" s="40">
         <v>1014</v>
       </c>
       <c r="C213" s="40" t="s">
-        <v>3643</v>
+        <v>3639</v>
       </c>
       <c r="D213" s="56"/>
       <c r="E213" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G213" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H213" s="40">
         <v>1</v>
@@ -52221,20 +52226,20 @@
     </row>
     <row r="214" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="40" t="s">
-        <v>3716</v>
+        <v>3710</v>
       </c>
       <c r="B214" s="40">
         <v>1014</v>
       </c>
       <c r="C214" s="40" t="s">
-        <v>3644</v>
+        <v>3640</v>
       </c>
       <c r="D214" s="56"/>
       <c r="E214" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G214" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H214" s="40">
         <v>1</v>
@@ -52242,20 +52247,20 @@
     </row>
     <row r="215" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="40" t="s">
-        <v>3717</v>
+        <v>3711</v>
       </c>
       <c r="B215" s="40">
         <v>1014</v>
       </c>
       <c r="C215" s="40" t="s">
-        <v>3645</v>
+        <v>3641</v>
       </c>
       <c r="D215" s="56"/>
       <c r="E215" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G215" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H215" s="40">
         <v>1</v>
@@ -52263,20 +52268,20 @@
     </row>
     <row r="216" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="40" t="s">
-        <v>3718</v>
+        <v>3712</v>
       </c>
       <c r="B216" s="40">
         <v>1014</v>
       </c>
       <c r="C216" s="40" t="s">
-        <v>3646</v>
+        <v>3642</v>
       </c>
       <c r="D216" s="56"/>
       <c r="E216" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G216" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H216" s="40">
         <v>1</v>
@@ -52284,25 +52289,27 @@
     </row>
     <row r="217" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="40" t="s">
-        <v>3719</v>
+        <v>3713</v>
       </c>
       <c r="B217" s="40">
         <v>1014</v>
       </c>
       <c r="C217" s="40" t="s">
-        <v>3647</v>
+        <v>3643</v>
       </c>
       <c r="D217" s="56"/>
       <c r="E217" s="40" t="s">
-        <v>3773</v>
+        <v>1306</v>
       </c>
       <c r="G217" s="40" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="H217" s="40">
         <v>1</v>
       </c>
     </row>
+    <row r="218" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -52313,7 +52320,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52331,7 +52338,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -52365,7 +52372,7 @@
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="B3">
         <v>2012</v>
@@ -52374,16 +52381,16 @@
         <v>2016</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>3774</v>
+        <v>3769</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>3759</v>
+        <v>3755</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>3773</v>
+        <v>4055</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>3760</v>
+        <v>3756</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -52414,7 +52421,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>3856</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -52448,7 +52455,7 @@
     </row>
     <row r="3" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>3775</v>
+        <v>3770</v>
       </c>
       <c r="B3" s="40">
         <v>2011</v>
@@ -52457,10 +52464,10 @@
         <v>2015</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>3776</v>
+        <v>3771</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>3826</v>
+        <v>3821</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>2936</v>
@@ -52474,7 +52481,7 @@
     </row>
     <row r="4" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>3825</v>
+        <v>3820</v>
       </c>
       <c r="B4" s="40">
         <v>2011</v>
@@ -52483,10 +52490,10 @@
         <v>2015</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>3827</v>
+        <v>3822</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>3836</v>
+        <v>3831</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>2936</v>
@@ -52503,7 +52510,7 @@
     </row>
     <row r="5" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>3828</v>
+        <v>3823</v>
       </c>
       <c r="B5" s="40">
         <v>2011</v>
@@ -52512,10 +52519,10 @@
         <v>2015</v>
       </c>
       <c r="D5" s="40" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E5" s="58" t="s">
         <v>3832</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>3837</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>2936</v>
@@ -52532,7 +52539,7 @@
     </row>
     <row r="6" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
-        <v>3829</v>
+        <v>3824</v>
       </c>
       <c r="B6" s="40">
         <v>2011</v>
@@ -52541,10 +52548,10 @@
         <v>2015</v>
       </c>
       <c r="D6" s="40" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E6" s="58" t="s">
         <v>3833</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>3838</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>2936</v>
@@ -52561,7 +52568,7 @@
     </row>
     <row r="7" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>3830</v>
+        <v>3825</v>
       </c>
       <c r="B7" s="40">
         <v>2011</v>
@@ -52570,10 +52577,10 @@
         <v>2015</v>
       </c>
       <c r="D7" s="40" t="s">
+        <v>3829</v>
+      </c>
+      <c r="E7" s="58" t="s">
         <v>3834</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>3839</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>2936</v>
@@ -52590,7 +52597,7 @@
     </row>
     <row r="8" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>3831</v>
+        <v>3826</v>
       </c>
       <c r="B8" s="40">
         <v>2011</v>
@@ -52599,10 +52606,10 @@
         <v>2015</v>
       </c>
       <c r="D8" s="40" t="s">
+        <v>3830</v>
+      </c>
+      <c r="E8" s="58" t="s">
         <v>3835</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>3840</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>2936</v>
@@ -52619,13 +52626,13 @@
     </row>
     <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
-        <v>3777</v>
+        <v>3772</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>3778</v>
+        <v>3773</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>3779</v>
+        <v>3774</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>2936</v>
@@ -52639,13 +52646,13 @@
     </row>
     <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
+        <v>3836</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>3841</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="E10" s="58" t="s">
         <v>3846</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>3851</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>2936</v>
@@ -52662,13 +52669,13 @@
     </row>
     <row r="11" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
+        <v>3837</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>3842</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>3847</v>
-      </c>
       <c r="E11" s="58" t="s">
-        <v>3853</v>
+        <v>3848</v>
       </c>
       <c r="F11" s="40" t="s">
         <v>2936</v>
@@ -52685,13 +52692,13 @@
     </row>
     <row r="12" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
+        <v>3838</v>
+      </c>
+      <c r="D12" s="42" t="s">
         <v>3843</v>
       </c>
-      <c r="D12" s="42" t="s">
-        <v>3848</v>
-      </c>
       <c r="E12" s="58" t="s">
-        <v>3852</v>
+        <v>3847</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>2936</v>
@@ -52708,13 +52715,13 @@
     </row>
     <row r="13" spans="1:9" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
+        <v>3839</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>3844</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="E13" s="58" t="s">
         <v>3849</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>3854</v>
       </c>
       <c r="F13" s="40" t="s">
         <v>2936</v>
@@ -52731,13 +52738,13 @@
     </row>
     <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
+        <v>3840</v>
+      </c>
+      <c r="D14" s="42" t="s">
         <v>3845</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="E14" s="58" t="s">
         <v>3850</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>3855</v>
       </c>
       <c r="F14" s="40" t="s">
         <v>2936</v>
@@ -52754,17 +52761,17 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
-        <v>3780</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
-        <v>3859</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
+      <c r="A18" s="60" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -52778,7 +52785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -52796,7 +52803,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>3858</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -52833,7 +52840,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>3781</v>
+        <v>3776</v>
       </c>
       <c r="B3" s="40">
         <v>2011</v>
@@ -52842,16 +52849,16 @@
         <v>2015</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>3782</v>
+        <v>3777</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G3" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I3" s="40" t="s">
         <v>3178</v>
@@ -52859,7 +52866,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>3784</v>
+        <v>3779</v>
       </c>
       <c r="B4" s="40">
         <v>2011</v>
@@ -52868,16 +52875,16 @@
         <v>2015</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>3785</v>
+        <v>3780</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I4" s="40" t="s">
         <v>3178</v>
@@ -52885,7 +52892,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>3786</v>
+        <v>3781</v>
       </c>
       <c r="B5" s="40">
         <v>2011</v>
@@ -52894,16 +52901,16 @@
         <v>2015</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>3787</v>
+        <v>3782</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I5" s="40" t="s">
         <v>3178</v>
@@ -52911,7 +52918,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
-        <v>3788</v>
+        <v>3783</v>
       </c>
       <c r="B6" s="40">
         <v>2011</v>
@@ -52920,13 +52927,13 @@
         <v>2015</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>3789</v>
+        <v>3784</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I6" s="40" t="s">
         <v>3178</v>
@@ -52934,7 +52941,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>3790</v>
+        <v>3785</v>
       </c>
       <c r="B7" s="40">
         <v>2011</v>
@@ -52943,16 +52950,16 @@
         <v>2015</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>3791</v>
+        <v>3786</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G7" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I7" s="40" t="s">
         <v>3178</v>
@@ -52960,7 +52967,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>3792</v>
+        <v>3787</v>
       </c>
       <c r="B8" s="40">
         <v>2011</v>
@@ -52969,16 +52976,16 @@
         <v>2015</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>3793</v>
+        <v>3788</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>3178</v>
@@ -52986,7 +52993,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
-        <v>3794</v>
+        <v>3789</v>
       </c>
       <c r="B9" s="40">
         <v>2011</v>
@@ -52995,16 +53002,16 @@
         <v>2015</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>3795</v>
+        <v>3790</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I9" s="40" t="s">
         <v>3178</v>
@@ -53012,7 +53019,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
-        <v>3796</v>
+        <v>3791</v>
       </c>
       <c r="B10" s="40">
         <v>2011</v>
@@ -53021,13 +53028,13 @@
         <v>2015</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>3797</v>
+        <v>3792</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>3178</v>
@@ -53035,7 +53042,7 @@
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>3798</v>
+        <v>3793</v>
       </c>
       <c r="B11" s="40">
         <v>2011</v>
@@ -53044,19 +53051,19 @@
         <v>2015</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>3799</v>
+        <v>3794</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>3800</v>
+        <v>3795</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G11" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I11" s="40" t="s">
         <v>3178</v>
@@ -53064,7 +53071,7 @@
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
-        <v>3801</v>
+        <v>3796</v>
       </c>
       <c r="B12" s="40">
         <v>2011</v>
@@ -53073,19 +53080,19 @@
         <v>2015</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>3802</v>
+        <v>3797</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>3803</v>
+        <v>3798</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>3178</v>
@@ -53093,7 +53100,7 @@
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>3804</v>
+        <v>3799</v>
       </c>
       <c r="B13" s="40">
         <v>2011</v>
@@ -53102,19 +53109,19 @@
         <v>2015</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>3805</v>
+        <v>3800</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>3806</v>
+        <v>3801</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I13" s="40" t="s">
         <v>3178</v>
@@ -53122,7 +53129,7 @@
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
-        <v>3807</v>
+        <v>3802</v>
       </c>
       <c r="B14" s="40">
         <v>2011</v>
@@ -53131,16 +53138,16 @@
         <v>2015</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>3808</v>
+        <v>3803</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>3809</v>
+        <v>3804</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>3178</v>
@@ -53148,7 +53155,7 @@
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
-        <v>3810</v>
+        <v>3805</v>
       </c>
       <c r="B15" s="40">
         <v>2011</v>
@@ -53157,19 +53164,19 @@
         <v>2015</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>3811</v>
+        <v>3806</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>3812</v>
+        <v>3807</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I15" s="40" t="s">
         <v>3178</v>
@@ -53177,7 +53184,7 @@
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
-        <v>3813</v>
+        <v>3808</v>
       </c>
       <c r="B16" s="40">
         <v>2011</v>
@@ -53186,19 +53193,19 @@
         <v>2015</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>3814</v>
+        <v>3809</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>3815</v>
+        <v>3810</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I16" s="40" t="s">
         <v>3178</v>
@@ -53206,7 +53213,7 @@
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
-        <v>3816</v>
+        <v>3811</v>
       </c>
       <c r="B17" s="40">
         <v>2011</v>
@@ -53215,19 +53222,19 @@
         <v>2015</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>3817</v>
+        <v>3812</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>3818</v>
+        <v>3813</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I17" s="40" t="s">
         <v>3178</v>
@@ -53235,7 +53242,7 @@
     </row>
     <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>3819</v>
+        <v>3814</v>
       </c>
       <c r="B18" s="40">
         <v>2011</v>
@@ -53244,16 +53251,16 @@
         <v>2015</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>3820</v>
+        <v>3815</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>3821</v>
+        <v>3816</v>
       </c>
       <c r="G18" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I18" s="40" t="s">
         <v>3178</v>
@@ -53261,7 +53268,7 @@
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
-        <v>3860</v>
+        <v>3855</v>
       </c>
       <c r="B19" s="40">
         <v>2011</v>
@@ -53270,17 +53277,17 @@
         <v>2015</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>3892</v>
+        <v>3887</v>
       </c>
       <c r="E19" s="58"/>
       <c r="F19" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G19" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I19" s="40" t="s">
         <v>3178</v>
@@ -53291,7 +53298,7 @@
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
-        <v>3861</v>
+        <v>3856</v>
       </c>
       <c r="B20" s="40">
         <v>2011</v>
@@ -53300,17 +53307,17 @@
         <v>2015</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>3893</v>
+        <v>3888</v>
       </c>
       <c r="E20" s="58"/>
       <c r="F20" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I20" s="40" t="s">
         <v>3178</v>
@@ -53321,7 +53328,7 @@
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
-        <v>3862</v>
+        <v>3857</v>
       </c>
       <c r="B21" s="40">
         <v>2011</v>
@@ -53330,17 +53337,17 @@
         <v>2015</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>3894</v>
+        <v>3889</v>
       </c>
       <c r="E21" s="58"/>
       <c r="F21" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G21" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I21" s="40" t="s">
         <v>3178</v>
@@ -53351,7 +53358,7 @@
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
-        <v>3863</v>
+        <v>3858</v>
       </c>
       <c r="B22" s="40">
         <v>2011</v>
@@ -53360,14 +53367,14 @@
         <v>2015</v>
       </c>
       <c r="D22" s="58" t="s">
-        <v>3895</v>
+        <v>3890</v>
       </c>
       <c r="E22" s="58"/>
       <c r="G22" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I22" s="40" t="s">
         <v>3178</v>
@@ -53378,7 +53385,7 @@
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
-        <v>3864</v>
+        <v>3859</v>
       </c>
       <c r="B23" s="40">
         <v>2011</v>
@@ -53387,17 +53394,17 @@
         <v>2015</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>3896</v>
+        <v>3891</v>
       </c>
       <c r="E23" s="58"/>
       <c r="F23" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G23" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I23" s="40" t="s">
         <v>3178</v>
@@ -53408,7 +53415,7 @@
     </row>
     <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
-        <v>3865</v>
+        <v>3860</v>
       </c>
       <c r="B24" s="40">
         <v>2011</v>
@@ -53417,17 +53424,17 @@
         <v>2015</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>3897</v>
+        <v>3892</v>
       </c>
       <c r="E24" s="58"/>
       <c r="F24" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G24" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I24" s="40" t="s">
         <v>3178</v>
@@ -53438,7 +53445,7 @@
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
-        <v>3866</v>
+        <v>3861</v>
       </c>
       <c r="B25" s="40">
         <v>2011</v>
@@ -53447,17 +53454,17 @@
         <v>2015</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>3898</v>
+        <v>3893</v>
       </c>
       <c r="E25" s="58"/>
       <c r="F25" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I25" s="40" t="s">
         <v>3178</v>
@@ -53468,7 +53475,7 @@
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
-        <v>3867</v>
+        <v>3862</v>
       </c>
       <c r="B26" s="40">
         <v>2011</v>
@@ -53477,14 +53484,14 @@
         <v>2015</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>3899</v>
+        <v>3894</v>
       </c>
       <c r="E26" s="58"/>
       <c r="G26" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I26" s="40" t="s">
         <v>3178</v>
@@ -53495,7 +53502,7 @@
     </row>
     <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
-        <v>3868</v>
+        <v>3863</v>
       </c>
       <c r="B27" s="40">
         <v>2011</v>
@@ -53504,19 +53511,19 @@
         <v>2015</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>3876</v>
+        <v>3871</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>3884</v>
+        <v>3879</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I27" s="40" t="s">
         <v>3178</v>
@@ -53527,7 +53534,7 @@
     </row>
     <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
-        <v>3869</v>
+        <v>3864</v>
       </c>
       <c r="B28" s="40">
         <v>2011</v>
@@ -53536,19 +53543,19 @@
         <v>2015</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>3877</v>
+        <v>3872</v>
       </c>
       <c r="E28" s="58" t="s">
-        <v>3885</v>
+        <v>3880</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G28" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>3178</v>
@@ -53559,7 +53566,7 @@
     </row>
     <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
-        <v>3870</v>
+        <v>3865</v>
       </c>
       <c r="B29" s="40">
         <v>2011</v>
@@ -53568,19 +53575,19 @@
         <v>2015</v>
       </c>
       <c r="D29" s="58" t="s">
-        <v>3878</v>
+        <v>3873</v>
       </c>
       <c r="E29" s="58" t="s">
-        <v>3886</v>
+        <v>3881</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G29" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I29" s="40" t="s">
         <v>3178</v>
@@ -53591,7 +53598,7 @@
     </row>
     <row r="30" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
-        <v>3871</v>
+        <v>3866</v>
       </c>
       <c r="B30" s="40">
         <v>2011</v>
@@ -53600,16 +53607,16 @@
         <v>2015</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>3879</v>
+        <v>3874</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>3887</v>
+        <v>3882</v>
       </c>
       <c r="G30" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I30" s="40" t="s">
         <v>3178</v>
@@ -53620,7 +53627,7 @@
     </row>
     <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
-        <v>3872</v>
+        <v>3867</v>
       </c>
       <c r="B31" s="40">
         <v>2011</v>
@@ -53629,19 +53636,19 @@
         <v>2015</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>3880</v>
+        <v>3875</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>3888</v>
+        <v>3883</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G31" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H31" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I31" s="40" t="s">
         <v>3178</v>
@@ -53652,7 +53659,7 @@
     </row>
     <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
-        <v>3873</v>
+        <v>3868</v>
       </c>
       <c r="B32" s="40">
         <v>2011</v>
@@ -53661,19 +53668,19 @@
         <v>2015</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>3881</v>
+        <v>3876</v>
       </c>
       <c r="E32" s="58" t="s">
-        <v>3889</v>
+        <v>3884</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G32" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I32" s="40" t="s">
         <v>3178</v>
@@ -53684,7 +53691,7 @@
     </row>
     <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
-        <v>3874</v>
+        <v>3869</v>
       </c>
       <c r="B33" s="40">
         <v>2011</v>
@@ -53693,19 +53700,19 @@
         <v>2015</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>3883</v>
+        <v>3878</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>3890</v>
+        <v>3885</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H33" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I33" s="40" t="s">
         <v>3178</v>
@@ -53716,7 +53723,7 @@
     </row>
     <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
-        <v>3875</v>
+        <v>3870</v>
       </c>
       <c r="B34" s="40">
         <v>2011</v>
@@ -53725,16 +53732,16 @@
         <v>2015</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>3882</v>
+        <v>3877</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>3891</v>
+        <v>3886</v>
       </c>
       <c r="G34" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I34" s="40" t="s">
         <v>3178</v>
@@ -53745,7 +53752,7 @@
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
-        <v>3900</v>
+        <v>3895</v>
       </c>
       <c r="B35" s="40">
         <v>2011</v>
@@ -53754,17 +53761,17 @@
         <v>2015</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>3916</v>
+        <v>3911</v>
       </c>
       <c r="E35" s="58"/>
       <c r="F35" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G35" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I35" s="40" t="s">
         <v>3178</v>
@@ -53775,7 +53782,7 @@
     </row>
     <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
-        <v>3901</v>
+        <v>3896</v>
       </c>
       <c r="B36" s="40">
         <v>2011</v>
@@ -53784,17 +53791,17 @@
         <v>2015</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>3917</v>
+        <v>3912</v>
       </c>
       <c r="E36" s="58"/>
       <c r="F36" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G36" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H36" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I36" s="40" t="s">
         <v>3178</v>
@@ -53805,7 +53812,7 @@
     </row>
     <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
-        <v>3902</v>
+        <v>3897</v>
       </c>
       <c r="B37" s="40">
         <v>2011</v>
@@ -53814,17 +53821,17 @@
         <v>2015</v>
       </c>
       <c r="D37" s="58" t="s">
-        <v>3918</v>
+        <v>3913</v>
       </c>
       <c r="E37" s="58"/>
       <c r="F37" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G37" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I37" s="40" t="s">
         <v>3178</v>
@@ -53835,7 +53842,7 @@
     </row>
     <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
-        <v>3903</v>
+        <v>3898</v>
       </c>
       <c r="B38" s="40">
         <v>2011</v>
@@ -53844,14 +53851,14 @@
         <v>2015</v>
       </c>
       <c r="D38" s="58" t="s">
-        <v>3919</v>
+        <v>3914</v>
       </c>
       <c r="E38" s="58"/>
       <c r="G38" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I38" s="40" t="s">
         <v>3178</v>
@@ -53862,7 +53869,7 @@
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
-        <v>3904</v>
+        <v>3899</v>
       </c>
       <c r="B39" s="40">
         <v>2011</v>
@@ -53871,17 +53878,17 @@
         <v>2015</v>
       </c>
       <c r="D39" s="58" t="s">
-        <v>3920</v>
+        <v>3915</v>
       </c>
       <c r="E39" s="58"/>
       <c r="F39" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G39" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I39" s="40" t="s">
         <v>3178</v>
@@ -53892,7 +53899,7 @@
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
-        <v>3905</v>
+        <v>3900</v>
       </c>
       <c r="B40" s="40">
         <v>2011</v>
@@ -53901,17 +53908,17 @@
         <v>2015</v>
       </c>
       <c r="D40" s="58" t="s">
-        <v>3921</v>
+        <v>3916</v>
       </c>
       <c r="E40" s="58"/>
       <c r="F40" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G40" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I40" s="40" t="s">
         <v>3178</v>
@@ -53922,7 +53929,7 @@
     </row>
     <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
-        <v>3906</v>
+        <v>3901</v>
       </c>
       <c r="B41" s="40">
         <v>2011</v>
@@ -53931,17 +53938,17 @@
         <v>2015</v>
       </c>
       <c r="D41" s="58" t="s">
-        <v>3922</v>
+        <v>3917</v>
       </c>
       <c r="E41" s="58"/>
       <c r="F41" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G41" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I41" s="40" t="s">
         <v>3178</v>
@@ -53952,7 +53959,7 @@
     </row>
     <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
-        <v>3907</v>
+        <v>3902</v>
       </c>
       <c r="B42" s="40">
         <v>2011</v>
@@ -53961,14 +53968,14 @@
         <v>2015</v>
       </c>
       <c r="D42" s="58" t="s">
-        <v>3923</v>
+        <v>3918</v>
       </c>
       <c r="E42" s="58"/>
       <c r="G42" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I42" s="40" t="s">
         <v>3178</v>
@@ -53979,7 +53986,7 @@
     </row>
     <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
-        <v>3908</v>
+        <v>3903</v>
       </c>
       <c r="B43" s="40">
         <v>2011</v>
@@ -53988,19 +53995,19 @@
         <v>2015</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>3924</v>
+        <v>3919</v>
       </c>
       <c r="E43" s="58" t="s">
-        <v>3925</v>
+        <v>3920</v>
       </c>
       <c r="F43" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G43" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I43" s="40" t="s">
         <v>3178</v>
@@ -54011,7 +54018,7 @@
     </row>
     <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
-        <v>3909</v>
+        <v>3904</v>
       </c>
       <c r="B44" s="40">
         <v>2011</v>
@@ -54020,19 +54027,19 @@
         <v>2015</v>
       </c>
       <c r="D44" s="58" t="s">
-        <v>3926</v>
+        <v>3921</v>
       </c>
       <c r="E44" s="58" t="s">
-        <v>3927</v>
+        <v>3922</v>
       </c>
       <c r="F44" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G44" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I44" s="40" t="s">
         <v>3178</v>
@@ -54043,7 +54050,7 @@
     </row>
     <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="40" t="s">
-        <v>3910</v>
+        <v>3905</v>
       </c>
       <c r="B45" s="40">
         <v>2011</v>
@@ -54052,19 +54059,19 @@
         <v>2015</v>
       </c>
       <c r="D45" s="58" t="s">
-        <v>3928</v>
+        <v>3923</v>
       </c>
       <c r="E45" s="58" t="s">
-        <v>3929</v>
+        <v>3924</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G45" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I45" s="40" t="s">
         <v>3178</v>
@@ -54075,7 +54082,7 @@
     </row>
     <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="40" t="s">
-        <v>3911</v>
+        <v>3906</v>
       </c>
       <c r="B46" s="40">
         <v>2011</v>
@@ -54084,16 +54091,16 @@
         <v>2015</v>
       </c>
       <c r="D46" s="58" t="s">
-        <v>3930</v>
+        <v>3925</v>
       </c>
       <c r="E46" s="58" t="s">
-        <v>3931</v>
+        <v>3926</v>
       </c>
       <c r="G46" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I46" s="40" t="s">
         <v>3178</v>
@@ -54104,7 +54111,7 @@
     </row>
     <row r="47" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="40" t="s">
-        <v>3912</v>
+        <v>3907</v>
       </c>
       <c r="B47" s="40">
         <v>2011</v>
@@ -54113,19 +54120,19 @@
         <v>2015</v>
       </c>
       <c r="D47" s="58" t="s">
-        <v>3932</v>
+        <v>3927</v>
       </c>
       <c r="E47" s="58" t="s">
-        <v>3933</v>
+        <v>3928</v>
       </c>
       <c r="F47" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G47" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I47" s="40" t="s">
         <v>3178</v>
@@ -54136,7 +54143,7 @@
     </row>
     <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
-        <v>3913</v>
+        <v>3908</v>
       </c>
       <c r="B48" s="40">
         <v>2011</v>
@@ -54145,19 +54152,19 @@
         <v>2015</v>
       </c>
       <c r="D48" s="58" t="s">
-        <v>3934</v>
+        <v>3929</v>
       </c>
       <c r="E48" s="58" t="s">
-        <v>3935</v>
+        <v>3930</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G48" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H48" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I48" s="40" t="s">
         <v>3178</v>
@@ -54168,7 +54175,7 @@
     </row>
     <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="40" t="s">
-        <v>3914</v>
+        <v>3909</v>
       </c>
       <c r="B49" s="40">
         <v>2011</v>
@@ -54177,19 +54184,19 @@
         <v>2015</v>
       </c>
       <c r="D49" s="58" t="s">
-        <v>3936</v>
+        <v>3931</v>
       </c>
       <c r="E49" s="58" t="s">
-        <v>3937</v>
+        <v>3932</v>
       </c>
       <c r="F49" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G49" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I49" s="40" t="s">
         <v>3178</v>
@@ -54200,7 +54207,7 @@
     </row>
     <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="40" t="s">
-        <v>3915</v>
+        <v>3910</v>
       </c>
       <c r="B50" s="40">
         <v>2011</v>
@@ -54209,16 +54216,16 @@
         <v>2015</v>
       </c>
       <c r="D50" s="58" t="s">
-        <v>3938</v>
+        <v>3933</v>
       </c>
       <c r="E50" s="58" t="s">
-        <v>3939</v>
+        <v>3934</v>
       </c>
       <c r="G50" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I50" s="40" t="s">
         <v>3178</v>
@@ -54229,7 +54236,7 @@
     </row>
     <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="40" t="s">
-        <v>3964</v>
+        <v>3959</v>
       </c>
       <c r="B51" s="40">
         <v>2011</v>
@@ -54238,17 +54245,17 @@
         <v>2015</v>
       </c>
       <c r="D51" s="58" t="s">
-        <v>3940</v>
+        <v>3935</v>
       </c>
       <c r="E51" s="58"/>
       <c r="F51" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G51" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H51" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I51" s="40" t="s">
         <v>3178</v>
@@ -54259,7 +54266,7 @@
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="40" t="s">
-        <v>3965</v>
+        <v>3960</v>
       </c>
       <c r="B52" s="40">
         <v>2011</v>
@@ -54268,17 +54275,17 @@
         <v>2015</v>
       </c>
       <c r="D52" s="58" t="s">
-        <v>3941</v>
+        <v>3936</v>
       </c>
       <c r="E52" s="58"/>
       <c r="F52" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G52" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I52" s="40" t="s">
         <v>3178</v>
@@ -54289,7 +54296,7 @@
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="40" t="s">
-        <v>3966</v>
+        <v>3961</v>
       </c>
       <c r="B53" s="40">
         <v>2011</v>
@@ -54298,17 +54305,17 @@
         <v>2015</v>
       </c>
       <c r="D53" s="58" t="s">
-        <v>3942</v>
+        <v>3937</v>
       </c>
       <c r="E53" s="58"/>
       <c r="F53" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G53" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H53" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I53" s="40" t="s">
         <v>3178</v>
@@ -54319,7 +54326,7 @@
     </row>
     <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="40" t="s">
-        <v>3967</v>
+        <v>3962</v>
       </c>
       <c r="B54" s="40">
         <v>2011</v>
@@ -54328,14 +54335,14 @@
         <v>2015</v>
       </c>
       <c r="D54" s="58" t="s">
-        <v>3943</v>
+        <v>3938</v>
       </c>
       <c r="E54" s="58"/>
       <c r="G54" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H54" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I54" s="40" t="s">
         <v>3178</v>
@@ -54346,7 +54353,7 @@
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="40" t="s">
-        <v>3968</v>
+        <v>3963</v>
       </c>
       <c r="B55" s="40">
         <v>2011</v>
@@ -54355,17 +54362,17 @@
         <v>2015</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>3944</v>
+        <v>3939</v>
       </c>
       <c r="E55" s="58"/>
       <c r="F55" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G55" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H55" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I55" s="40" t="s">
         <v>3178</v>
@@ -54376,7 +54383,7 @@
     </row>
     <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
-        <v>3969</v>
+        <v>3964</v>
       </c>
       <c r="B56" s="40">
         <v>2011</v>
@@ -54385,17 +54392,17 @@
         <v>2015</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>3945</v>
+        <v>3940</v>
       </c>
       <c r="E56" s="58"/>
       <c r="F56" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G56" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I56" s="40" t="s">
         <v>3178</v>
@@ -54406,7 +54413,7 @@
     </row>
     <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="40" t="s">
-        <v>3970</v>
+        <v>3965</v>
       </c>
       <c r="B57" s="40">
         <v>2011</v>
@@ -54415,17 +54422,17 @@
         <v>2015</v>
       </c>
       <c r="D57" s="58" t="s">
-        <v>3946</v>
+        <v>3941</v>
       </c>
       <c r="E57" s="58"/>
       <c r="F57" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G57" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I57" s="40" t="s">
         <v>3178</v>
@@ -54436,7 +54443,7 @@
     </row>
     <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="40" t="s">
-        <v>3971</v>
+        <v>3966</v>
       </c>
       <c r="B58" s="40">
         <v>2011</v>
@@ -54445,14 +54452,14 @@
         <v>2015</v>
       </c>
       <c r="D58" s="58" t="s">
-        <v>3947</v>
+        <v>3942</v>
       </c>
       <c r="E58" s="58"/>
       <c r="G58" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I58" s="40" t="s">
         <v>3178</v>
@@ -54463,7 +54470,7 @@
     </row>
     <row r="59" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="40" t="s">
-        <v>3972</v>
+        <v>3967</v>
       </c>
       <c r="B59" s="40">
         <v>2011</v>
@@ -54472,19 +54479,19 @@
         <v>2015</v>
       </c>
       <c r="D59" s="58" t="s">
-        <v>3948</v>
+        <v>3943</v>
       </c>
       <c r="E59" s="58" t="s">
-        <v>3949</v>
+        <v>3944</v>
       </c>
       <c r="F59" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G59" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H59" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I59" s="40" t="s">
         <v>3178</v>
@@ -54495,7 +54502,7 @@
     </row>
     <row r="60" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="40" t="s">
-        <v>3973</v>
+        <v>3968</v>
       </c>
       <c r="B60" s="40">
         <v>2011</v>
@@ -54504,19 +54511,19 @@
         <v>2015</v>
       </c>
       <c r="D60" s="58" t="s">
-        <v>3950</v>
+        <v>3945</v>
       </c>
       <c r="E60" s="58" t="s">
-        <v>3951</v>
+        <v>3946</v>
       </c>
       <c r="F60" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G60" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H60" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I60" s="40" t="s">
         <v>3178</v>
@@ -54527,7 +54534,7 @@
     </row>
     <row r="61" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
-        <v>3974</v>
+        <v>3969</v>
       </c>
       <c r="B61" s="40">
         <v>2011</v>
@@ -54536,19 +54543,19 @@
         <v>2015</v>
       </c>
       <c r="D61" s="58" t="s">
-        <v>3952</v>
+        <v>3947</v>
       </c>
       <c r="E61" s="58" t="s">
-        <v>3953</v>
+        <v>3948</v>
       </c>
       <c r="F61" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G61" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I61" s="40" t="s">
         <v>3178</v>
@@ -54559,7 +54566,7 @@
     </row>
     <row r="62" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="40" t="s">
-        <v>3975</v>
+        <v>3970</v>
       </c>
       <c r="B62" s="40">
         <v>2011</v>
@@ -54568,16 +54575,16 @@
         <v>2015</v>
       </c>
       <c r="D62" s="58" t="s">
-        <v>3954</v>
+        <v>3949</v>
       </c>
       <c r="E62" s="58" t="s">
-        <v>3955</v>
+        <v>3950</v>
       </c>
       <c r="G62" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H62" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I62" s="40" t="s">
         <v>3178</v>
@@ -54588,7 +54595,7 @@
     </row>
     <row r="63" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
-        <v>3976</v>
+        <v>3971</v>
       </c>
       <c r="B63" s="40">
         <v>2011</v>
@@ -54597,19 +54604,19 @@
         <v>2015</v>
       </c>
       <c r="D63" s="58" t="s">
-        <v>3956</v>
+        <v>3951</v>
       </c>
       <c r="E63" s="58" t="s">
-        <v>3957</v>
+        <v>3952</v>
       </c>
       <c r="F63" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G63" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H63" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I63" s="40" t="s">
         <v>3178</v>
@@ -54620,7 +54627,7 @@
     </row>
     <row r="64" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="40" t="s">
-        <v>3977</v>
+        <v>3972</v>
       </c>
       <c r="B64" s="40">
         <v>2011</v>
@@ -54629,19 +54636,19 @@
         <v>2015</v>
       </c>
       <c r="D64" s="58" t="s">
-        <v>3958</v>
+        <v>3953</v>
       </c>
       <c r="E64" s="58" t="s">
-        <v>3959</v>
+        <v>3954</v>
       </c>
       <c r="F64" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G64" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H64" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I64" s="40" t="s">
         <v>3178</v>
@@ -54652,7 +54659,7 @@
     </row>
     <row r="65" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="40" t="s">
-        <v>3978</v>
+        <v>3973</v>
       </c>
       <c r="B65" s="40">
         <v>2011</v>
@@ -54661,19 +54668,19 @@
         <v>2015</v>
       </c>
       <c r="D65" s="58" t="s">
-        <v>3960</v>
+        <v>3955</v>
       </c>
       <c r="E65" s="58" t="s">
-        <v>3961</v>
+        <v>3956</v>
       </c>
       <c r="F65" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G65" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H65" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I65" s="40" t="s">
         <v>3178</v>
@@ -54684,7 +54691,7 @@
     </row>
     <row r="66" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
-        <v>3979</v>
+        <v>3974</v>
       </c>
       <c r="B66" s="40">
         <v>2011</v>
@@ -54693,16 +54700,16 @@
         <v>2015</v>
       </c>
       <c r="D66" s="58" t="s">
-        <v>3962</v>
+        <v>3957</v>
       </c>
       <c r="E66" s="58" t="s">
-        <v>3963</v>
+        <v>3958</v>
       </c>
       <c r="G66" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H66" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I66" s="40" t="s">
         <v>3178</v>
@@ -54713,7 +54720,7 @@
     </row>
     <row r="67" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="40" t="s">
-        <v>3980</v>
+        <v>3975</v>
       </c>
       <c r="B67" s="40">
         <v>2011</v>
@@ -54722,17 +54729,17 @@
         <v>2015</v>
       </c>
       <c r="D67" s="58" t="s">
-        <v>3996</v>
+        <v>3991</v>
       </c>
       <c r="E67" s="58"/>
       <c r="F67" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G67" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I67" s="40" t="s">
         <v>3178</v>
@@ -54743,7 +54750,7 @@
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="40" t="s">
-        <v>3981</v>
+        <v>3976</v>
       </c>
       <c r="B68" s="40">
         <v>2011</v>
@@ -54752,17 +54759,17 @@
         <v>2015</v>
       </c>
       <c r="D68" s="58" t="s">
-        <v>3997</v>
+        <v>3992</v>
       </c>
       <c r="E68" s="58"/>
       <c r="F68" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G68" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H68" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I68" s="40" t="s">
         <v>3178</v>
@@ -54773,7 +54780,7 @@
     </row>
     <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
-        <v>3982</v>
+        <v>3977</v>
       </c>
       <c r="B69" s="40">
         <v>2011</v>
@@ -54782,17 +54789,17 @@
         <v>2015</v>
       </c>
       <c r="D69" s="58" t="s">
-        <v>3998</v>
+        <v>3993</v>
       </c>
       <c r="E69" s="58"/>
       <c r="F69" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G69" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H69" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I69" s="40" t="s">
         <v>3178</v>
@@ -54803,7 +54810,7 @@
     </row>
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="40" t="s">
-        <v>3983</v>
+        <v>3978</v>
       </c>
       <c r="B70" s="40">
         <v>2011</v>
@@ -54812,14 +54819,14 @@
         <v>2015</v>
       </c>
       <c r="D70" s="58" t="s">
-        <v>3999</v>
+        <v>3994</v>
       </c>
       <c r="E70" s="58"/>
       <c r="G70" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H70" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I70" s="40" t="s">
         <v>3178</v>
@@ -54830,7 +54837,7 @@
     </row>
     <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="40" t="s">
-        <v>3984</v>
+        <v>3979</v>
       </c>
       <c r="B71" s="40">
         <v>2011</v>
@@ -54839,17 +54846,17 @@
         <v>2015</v>
       </c>
       <c r="D71" s="58" t="s">
-        <v>4000</v>
+        <v>3995</v>
       </c>
       <c r="E71" s="58"/>
       <c r="F71" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G71" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H71" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I71" s="40" t="s">
         <v>3178</v>
@@ -54860,7 +54867,7 @@
     </row>
     <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="40" t="s">
-        <v>3985</v>
+        <v>3980</v>
       </c>
       <c r="B72" s="40">
         <v>2011</v>
@@ -54869,17 +54876,17 @@
         <v>2015</v>
       </c>
       <c r="D72" s="58" t="s">
-        <v>4001</v>
+        <v>3996</v>
       </c>
       <c r="E72" s="58"/>
       <c r="F72" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G72" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H72" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I72" s="40" t="s">
         <v>3178</v>
@@ -54890,7 +54897,7 @@
     </row>
     <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="40" t="s">
-        <v>3986</v>
+        <v>3981</v>
       </c>
       <c r="B73" s="40">
         <v>2011</v>
@@ -54899,17 +54906,17 @@
         <v>2015</v>
       </c>
       <c r="D73" s="58" t="s">
-        <v>4002</v>
+        <v>3997</v>
       </c>
       <c r="E73" s="58"/>
       <c r="F73" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G73" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H73" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I73" s="40" t="s">
         <v>3178</v>
@@ -54920,7 +54927,7 @@
     </row>
     <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="40" t="s">
-        <v>3987</v>
+        <v>3982</v>
       </c>
       <c r="B74" s="40">
         <v>2011</v>
@@ -54929,14 +54936,14 @@
         <v>2015</v>
       </c>
       <c r="D74" s="58" t="s">
-        <v>4003</v>
+        <v>3998</v>
       </c>
       <c r="E74" s="58"/>
       <c r="G74" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H74" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I74" s="40" t="s">
         <v>3178</v>
@@ -54945,9 +54952,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="40" t="s">
-        <v>3988</v>
+        <v>3983</v>
       </c>
       <c r="B75" s="40">
         <v>2011</v>
@@ -54956,19 +54963,19 @@
         <v>2015</v>
       </c>
       <c r="D75" s="58" t="s">
-        <v>4004</v>
+        <v>3999</v>
       </c>
       <c r="E75" s="58" t="s">
-        <v>4005</v>
+        <v>4000</v>
       </c>
       <c r="F75" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G75" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H75" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I75" s="40" t="s">
         <v>3178</v>
@@ -54977,9 +54984,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="40" t="s">
-        <v>3989</v>
+        <v>3984</v>
       </c>
       <c r="B76" s="40">
         <v>2011</v>
@@ -54988,19 +54995,19 @@
         <v>2015</v>
       </c>
       <c r="D76" s="58" t="s">
-        <v>4006</v>
+        <v>4001</v>
       </c>
       <c r="E76" s="58" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="F76" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G76" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H76" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I76" s="40" t="s">
         <v>3178</v>
@@ -55009,9 +55016,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="40" t="s">
-        <v>3990</v>
+        <v>3985</v>
       </c>
       <c r="B77" s="40">
         <v>2011</v>
@@ -55020,19 +55027,19 @@
         <v>2015</v>
       </c>
       <c r="D77" s="58" t="s">
-        <v>4008</v>
+        <v>4003</v>
       </c>
       <c r="E77" s="58" t="s">
-        <v>4009</v>
+        <v>4004</v>
       </c>
       <c r="F77" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G77" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H77" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I77" s="40" t="s">
         <v>3178</v>
@@ -55041,9 +55048,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="40" t="s">
-        <v>3991</v>
+        <v>3986</v>
       </c>
       <c r="B78" s="40">
         <v>2011</v>
@@ -55052,16 +55059,16 @@
         <v>2015</v>
       </c>
       <c r="D78" s="58" t="s">
-        <v>4010</v>
+        <v>4005</v>
       </c>
       <c r="E78" s="58" t="s">
-        <v>4011</v>
+        <v>4006</v>
       </c>
       <c r="G78" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I78" s="40" t="s">
         <v>3178</v>
@@ -55070,9 +55077,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="40" t="s">
-        <v>3992</v>
+        <v>3987</v>
       </c>
       <c r="B79" s="40">
         <v>2011</v>
@@ -55081,19 +55088,19 @@
         <v>2015</v>
       </c>
       <c r="D79" s="58" t="s">
-        <v>4012</v>
+        <v>4007</v>
       </c>
       <c r="E79" s="58" t="s">
-        <v>4013</v>
+        <v>4008</v>
       </c>
       <c r="F79" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G79" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I79" s="40" t="s">
         <v>3178</v>
@@ -55102,9 +55109,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="40" t="s">
-        <v>3993</v>
+        <v>3988</v>
       </c>
       <c r="B80" s="40">
         <v>2011</v>
@@ -55113,19 +55120,19 @@
         <v>2015</v>
       </c>
       <c r="D80" s="58" t="s">
-        <v>4014</v>
+        <v>4009</v>
       </c>
       <c r="E80" s="58" t="s">
-        <v>4015</v>
+        <v>4010</v>
       </c>
       <c r="F80" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G80" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H80" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I80" s="40" t="s">
         <v>3178</v>
@@ -55134,9 +55141,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="40" t="s">
-        <v>3994</v>
+        <v>3989</v>
       </c>
       <c r="B81" s="40">
         <v>2011</v>
@@ -55145,19 +55152,19 @@
         <v>2015</v>
       </c>
       <c r="D81" s="58" t="s">
-        <v>4016</v>
+        <v>4011</v>
       </c>
       <c r="E81" s="58" t="s">
-        <v>4017</v>
+        <v>4012</v>
       </c>
       <c r="F81" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G81" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H81" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I81" s="40" t="s">
         <v>3178</v>
@@ -55166,9 +55173,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="40" t="s">
-        <v>3995</v>
+        <v>3990</v>
       </c>
       <c r="B82" s="40">
         <v>2011</v>
@@ -55177,16 +55184,16 @@
         <v>2015</v>
       </c>
       <c r="D82" s="58" t="s">
-        <v>4018</v>
+        <v>4013</v>
       </c>
       <c r="E82" s="58" t="s">
-        <v>4019</v>
+        <v>4014</v>
       </c>
       <c r="G82" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H82" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I82" s="40" t="s">
         <v>3178</v>
@@ -55197,7 +55204,7 @@
     </row>
     <row r="83" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="40" t="s">
-        <v>4020</v>
+        <v>4015</v>
       </c>
       <c r="B83" s="40">
         <v>2011</v>
@@ -55206,17 +55213,17 @@
         <v>2015</v>
       </c>
       <c r="D83" s="58" t="s">
-        <v>4036</v>
+        <v>4031</v>
       </c>
       <c r="E83" s="58"/>
       <c r="F83" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G83" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H83" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I83" s="40" t="s">
         <v>3178</v>
@@ -55227,7 +55234,7 @@
     </row>
     <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="40" t="s">
-        <v>4021</v>
+        <v>4016</v>
       </c>
       <c r="B84" s="40">
         <v>2011</v>
@@ -55236,17 +55243,17 @@
         <v>2015</v>
       </c>
       <c r="D84" s="58" t="s">
-        <v>4037</v>
+        <v>4032</v>
       </c>
       <c r="E84" s="58"/>
       <c r="F84" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G84" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H84" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I84" s="40" t="s">
         <v>3178</v>
@@ -55257,7 +55264,7 @@
     </row>
     <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="40" t="s">
-        <v>4022</v>
+        <v>4017</v>
       </c>
       <c r="B85" s="40">
         <v>2011</v>
@@ -55266,17 +55273,17 @@
         <v>2015</v>
       </c>
       <c r="D85" s="58" t="s">
-        <v>4038</v>
+        <v>4033</v>
       </c>
       <c r="E85" s="58"/>
       <c r="F85" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G85" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H85" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I85" s="40" t="s">
         <v>3178</v>
@@ -55287,7 +55294,7 @@
     </row>
     <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="40" t="s">
-        <v>4023</v>
+        <v>4018</v>
       </c>
       <c r="B86" s="40">
         <v>2011</v>
@@ -55296,14 +55303,14 @@
         <v>2015</v>
       </c>
       <c r="D86" s="58" t="s">
-        <v>4039</v>
+        <v>4034</v>
       </c>
       <c r="E86" s="58"/>
       <c r="G86" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H86" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I86" s="40" t="s">
         <v>3178</v>
@@ -55314,7 +55321,7 @@
     </row>
     <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="40" t="s">
-        <v>4024</v>
+        <v>4019</v>
       </c>
       <c r="B87" s="40">
         <v>2011</v>
@@ -55323,17 +55330,17 @@
         <v>2015</v>
       </c>
       <c r="D87" s="58" t="s">
-        <v>4040</v>
+        <v>4035</v>
       </c>
       <c r="E87" s="58"/>
       <c r="F87" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G87" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H87" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I87" s="40" t="s">
         <v>3178</v>
@@ -55344,7 +55351,7 @@
     </row>
     <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="40" t="s">
-        <v>4025</v>
+        <v>4020</v>
       </c>
       <c r="B88" s="40">
         <v>2011</v>
@@ -55353,17 +55360,17 @@
         <v>2015</v>
       </c>
       <c r="D88" s="58" t="s">
-        <v>4041</v>
+        <v>4036</v>
       </c>
       <c r="E88" s="58"/>
       <c r="F88" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G88" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H88" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I88" s="40" t="s">
         <v>3178</v>
@@ -55374,7 +55381,7 @@
     </row>
     <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="40" t="s">
-        <v>4026</v>
+        <v>4021</v>
       </c>
       <c r="B89" s="40">
         <v>2011</v>
@@ -55383,17 +55390,17 @@
         <v>2015</v>
       </c>
       <c r="D89" s="58" t="s">
-        <v>4042</v>
+        <v>4037</v>
       </c>
       <c r="E89" s="58"/>
       <c r="F89" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G89" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I89" s="40" t="s">
         <v>3178</v>
@@ -55404,7 +55411,7 @@
     </row>
     <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="40" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="B90" s="40">
         <v>2011</v>
@@ -55413,14 +55420,14 @@
         <v>2015</v>
       </c>
       <c r="D90" s="58" t="s">
-        <v>4043</v>
+        <v>4038</v>
       </c>
       <c r="E90" s="58"/>
       <c r="G90" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I90" s="40" t="s">
         <v>3178</v>
@@ -55431,7 +55438,7 @@
     </row>
     <row r="91" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="40" t="s">
-        <v>4028</v>
+        <v>4023</v>
       </c>
       <c r="B91" s="40">
         <v>2011</v>
@@ -55440,19 +55447,19 @@
         <v>2015</v>
       </c>
       <c r="D91" s="58" t="s">
-        <v>4044</v>
+        <v>4039</v>
       </c>
       <c r="E91" s="58" t="s">
-        <v>4045</v>
+        <v>4040</v>
       </c>
       <c r="F91" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G91" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H91" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I91" s="40" t="s">
         <v>3178</v>
@@ -55463,7 +55470,7 @@
     </row>
     <row r="92" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="40" t="s">
-        <v>4029</v>
+        <v>4024</v>
       </c>
       <c r="B92" s="40">
         <v>2011</v>
@@ -55472,19 +55479,19 @@
         <v>2015</v>
       </c>
       <c r="D92" s="58" t="s">
-        <v>4046</v>
+        <v>4041</v>
       </c>
       <c r="E92" s="58" t="s">
-        <v>4047</v>
+        <v>4042</v>
       </c>
       <c r="F92" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G92" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H92" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I92" s="40" t="s">
         <v>3178</v>
@@ -55495,7 +55502,7 @@
     </row>
     <row r="93" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="40" t="s">
-        <v>4030</v>
+        <v>4025</v>
       </c>
       <c r="B93" s="40">
         <v>2011</v>
@@ -55504,19 +55511,19 @@
         <v>2015</v>
       </c>
       <c r="D93" s="58" t="s">
-        <v>4048</v>
+        <v>4043</v>
       </c>
       <c r="E93" s="58" t="s">
-        <v>4049</v>
+        <v>4044</v>
       </c>
       <c r="F93" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G93" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H93" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I93" s="40" t="s">
         <v>3178</v>
@@ -55527,7 +55534,7 @@
     </row>
     <row r="94" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="40" t="s">
-        <v>4031</v>
+        <v>4026</v>
       </c>
       <c r="B94" s="40">
         <v>2011</v>
@@ -55536,16 +55543,16 @@
         <v>2015</v>
       </c>
       <c r="D94" s="58" t="s">
-        <v>4050</v>
+        <v>4045</v>
       </c>
       <c r="E94" s="58" t="s">
-        <v>4051</v>
+        <v>4046</v>
       </c>
       <c r="G94" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="I94" s="40" t="s">
         <v>3178</v>
@@ -55556,7 +55563,7 @@
     </row>
     <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="40" t="s">
-        <v>4032</v>
+        <v>4027</v>
       </c>
       <c r="B95" s="40">
         <v>2011</v>
@@ -55565,19 +55572,19 @@
         <v>2015</v>
       </c>
       <c r="D95" s="58" t="s">
-        <v>4052</v>
+        <v>4047</v>
       </c>
       <c r="E95" s="58" t="s">
-        <v>4053</v>
+        <v>4048</v>
       </c>
       <c r="F95" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G95" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H95" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I95" s="40" t="s">
         <v>3178</v>
@@ -55588,7 +55595,7 @@
     </row>
     <row r="96" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="40" t="s">
-        <v>4033</v>
+        <v>4028</v>
       </c>
       <c r="B96" s="40">
         <v>2011</v>
@@ -55597,19 +55604,19 @@
         <v>2015</v>
       </c>
       <c r="D96" s="58" t="s">
-        <v>4054</v>
+        <v>4049</v>
       </c>
       <c r="E96" s="58" t="s">
-        <v>4055</v>
+        <v>4050</v>
       </c>
       <c r="F96" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G96" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H96" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I96" s="40" t="s">
         <v>3178</v>
@@ -55620,7 +55627,7 @@
     </row>
     <row r="97" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="40" t="s">
-        <v>4034</v>
+        <v>4029</v>
       </c>
       <c r="B97" s="40">
         <v>2011</v>
@@ -55629,19 +55636,19 @@
         <v>2015</v>
       </c>
       <c r="D97" s="58" t="s">
-        <v>4056</v>
+        <v>4051</v>
       </c>
       <c r="E97" s="58" t="s">
-        <v>4057</v>
+        <v>4052</v>
       </c>
       <c r="F97" s="40" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="G97" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H97" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I97" s="40" t="s">
         <v>3178</v>
@@ -55652,7 +55659,7 @@
     </row>
     <row r="98" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="40" t="s">
-        <v>4035</v>
+        <v>4030</v>
       </c>
       <c r="B98" s="40">
         <v>2011</v>
@@ -55661,16 +55668,16 @@
         <v>2015</v>
       </c>
       <c r="D98" s="58" t="s">
-        <v>4058</v>
+        <v>4053</v>
       </c>
       <c r="E98" s="58" t="s">
-        <v>4059</v>
+        <v>4054</v>
       </c>
       <c r="G98" s="40" t="s">
         <v>2936</v>
       </c>
       <c r="H98" s="40" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="I98" s="40" t="s">
         <v>3178</v>
@@ -55681,26 +55688,26 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="40" t="s">
-        <v>3780</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="59" t="s">
-        <v>3822</v>
-      </c>
-      <c r="B102" s="59"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="59"/>
+      <c r="A102" s="60" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B102" s="60"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="60"/>
     </row>
     <row r="104" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="60" t="s">
-        <v>3857</v>
-      </c>
-      <c r="B104" s="60"/>
-      <c r="C104" s="60"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="60"/>
+      <c r="A104" s="61" t="s">
+        <v>3852</v>
+      </c>
+      <c r="B104" s="61"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -56029,13 +56036,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="60" t="s">
         <v>2939</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -56200,7 +56207,7 @@
         <v>2016</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>3766</v>
+        <v>3762</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>1306</v>
@@ -56223,7 +56230,7 @@
         <v>2016</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>3767</v>
+        <v>3763</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>1306</v>
@@ -56246,7 +56253,7 @@
         <v>2016</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>3768</v>
+        <v>3764</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>1306</v>
@@ -56269,7 +56276,7 @@
         <v>2016</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>3769</v>
+        <v>3765</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>1306</v>
@@ -56435,7 +56442,7 @@
         <v>2831</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>3761</v>
+        <v>3757</v>
       </c>
       <c r="E18" s="41" t="s">
         <v>2858</v>
@@ -56455,7 +56462,7 @@
         <v>2832</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>3762</v>
+        <v>3758</v>
       </c>
       <c r="E19" s="41" t="s">
         <v>2859</v>
@@ -56475,7 +56482,7 @@
         <v>2833</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>3763</v>
+        <v>3759</v>
       </c>
       <c r="E20" s="41" t="s">
         <v>2860</v>
@@ -56495,7 +56502,7 @@
         <v>2834</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>3764</v>
+        <v>3760</v>
       </c>
       <c r="E21" s="41" t="s">
         <v>2861</v>
@@ -56544,7 +56551,7 @@
         <v>2016</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>3770</v>
+        <v>3766</v>
       </c>
       <c r="F23" s="40" t="s">
         <v>2941</v>
@@ -56581,7 +56588,7 @@
         <v>2840</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>3765</v>
+        <v>3761</v>
       </c>
       <c r="E25" s="41" t="s">
         <v>2863</v>
@@ -57722,13 +57729,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="60" t="s">
         <v>2901</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="41"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -57823,13 +57830,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>2908</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -59227,13 +59234,13 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="60" t="s">
+      <c r="A63" s="61" t="s">
         <v>3155</v>
       </c>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
